--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_16.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_16.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29112-d75845-Reviews-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>69</t>
   </si>
   <si>
     <t>?</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_16.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_16.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,646 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r519073469-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>29112</t>
+  </si>
+  <si>
+    <t>75845</t>
+  </si>
+  <si>
+    <t>519073469</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>worst most unprofessional hotel ive been to everrrrr..overpriced filthy rooms. double charged</t>
+  </si>
+  <si>
+    <t>to start off I was double charged for a room I had already booked online. mind you I book online with intent to arrive to a single king bed, when I arrived to hotel to check in they charged me again (without my consent) for a room with 2 queens &amp; stated they don't offer king beds. the next day when I realized the charge &amp; went to office to dispute they stated they couldn't do refund did have access to managers pw. so had to trust their manager would do it. she than refunded a lesser amount than what was charged due to a $5 check in fee which wasn't disclosed . room was filthy &amp; dirty .MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>to start off I was double charged for a room I had already booked online. mind you I book online with intent to arrive to a single king bed, when I arrived to hotel to check in they charged me again (without my consent) for a room with 2 queens &amp; stated they don't offer king beds. the next day when I realized the charge &amp; went to office to dispute they stated they couldn't do refund did have access to managers pw. so had to trust their manager would do it. she than refunded a lesser amount than what was charged due to a $5 check in fee which wasn't disclosed . room was filthy &amp; dirty .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r503338857-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>503338857</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Really bad customer service</t>
+  </si>
+  <si>
+    <t>This hotel has the most rude and closed minded people working. worst customer service. I had booked the hotel for one night. When i went inside the room I notice the remote was broken not working and they tried to charge me the remote. I had just checked in no more than 5 minutes. After that day I checked out. For some reason I had some other friends that had booked the next day there and I told them not to go to that hotel but they forced me to get one more night at that hotel since they had already booked. So i go and ask for another room for one night. The lady recognized me and gave me the same room. I go up there and the room was dirty. They had rented it to someone else after i checkout and never cleaned it since it had things that I never left on the room. I went to tell her she said you stayed there last night . That they were not going to clean it since it was my room and i stayed there which makes no sense. I had to get a refund to get out of there and on top of that they barely gave me a refund. My room had no microwave no fridge while my friends did have microwave and fridge but did not have iron and ironboard. Most rooms are garbageMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This hotel has the most rude and closed minded people working. worst customer service. I had booked the hotel for one night. When i went inside the room I notice the remote was broken not working and they tried to charge me the remote. I had just checked in no more than 5 minutes. After that day I checked out. For some reason I had some other friends that had booked the next day there and I told them not to go to that hotel but they forced me to get one more night at that hotel since they had already booked. So i go and ask for another room for one night. The lady recognized me and gave me the same room. I go up there and the room was dirty. They had rented it to someone else after i checkout and never cleaned it since it had things that I never left on the room. I went to tell her she said you stayed there last night . That they were not going to clean it since it was my room and i stayed there which makes no sense. I had to get a refund to get out of there and on top of that they barely gave me a refund. My room had no microwave no fridge while my friends did have microwave and fridge but did not have iron and ironboard. Most rooms are garbageMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r502344436-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>502344436</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Do not Stay here.</t>
+  </si>
+  <si>
+    <t>Service was terrible. Do not  waste your money! I booked a room online and already pay for it.  As I checked in, a staff said; " Sorry! We have plumbing problems and we ran out of rooms."  As I tried to get my money back, I saw a group of tourists checked in at front desk without the same issues. There were still  "ROOMS."</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r435485220-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>435485220</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>A group function of around 60 people including children, 23 rooms</t>
+  </si>
+  <si>
+    <t>The worst hotel ever,  service was terrible, people at fromt desk very ruth, holes in room ceiling, towel rack falling from wall, tiolet paper holder broken, roaches in the rooms, flying little insects in beds, ripped window sheers, duty towels in tubs, buttons missing on phones, some rooms missing towels, rooms with families of 4 or 5 only 2 towels and to wash cloths and when called the front desk for extra towels were told to come and get them and hang up on the person on the phone, only one card to open door so if one person went out the other couldn't get in and when asked for a second card they got angry, treated the person bad, that they couldn't be giving out cards and when finaly they give the card the other person couldn't get in because they changed the code so there was another argument at 1 a.m. Breakfast was a brown lunch bag with a cup noddle soup, boiled egg, a banana and 2 slices a bread (no toaster) Jelly was on a large jar with a spoon in it, all messy from people spill over the border of the jar into the tablecloth, some butter, some cereal with the gallons of milk on the table, coffee, only decaf.  just warm, and when you came in you had to show you room card and this lady that looked like they picked her up from...The worst hotel ever,  service was terrible, people at fromt desk very ruth, holes in room ceiling, towel rack falling from wall, tiolet paper holder broken, roaches in the rooms, flying little insects in beds, ripped window sheers, duty towels in tubs, buttons missing on phones, some rooms missing towels, rooms with families of 4 or 5 only 2 towels and to wash cloths and when called the front desk for extra towels were told to come and get them and hang up on the person on the phone, only one card to open door so if one person went out the other couldn't get in and when asked for a second card they got angry, treated the person bad, that they couldn't be giving out cards and when finaly they give the card the other person couldn't get in because they changed the code so there was another argument at 1 a.m. Breakfast was a brown lunch bag with a cup noddle soup, boiled egg, a banana and 2 slices a bread (no toaster) Jelly was on a large jar with a spoon in it, all messy from people spill over the border of the jar into the tablecloth, some butter, some cereal with the gallons of milk on the table, coffee, only decaf.  just warm, and when you came in you had to show you room card and this lady that looked like they picked her up from the street would write the room nunber down and how many bags you were taking.  Just ridiculous and very ruth management.  These people don't know what they are doing.  Will not recomend this hotel to no one.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>The worst hotel ever,  service was terrible, people at fromt desk very ruth, holes in room ceiling, towel rack falling from wall, tiolet paper holder broken, roaches in the rooms, flying little insects in beds, ripped window sheers, duty towels in tubs, buttons missing on phones, some rooms missing towels, rooms with families of 4 or 5 only 2 towels and to wash cloths and when called the front desk for extra towels were told to come and get them and hang up on the person on the phone, only one card to open door so if one person went out the other couldn't get in and when asked for a second card they got angry, treated the person bad, that they couldn't be giving out cards and when finaly they give the card the other person couldn't get in because they changed the code so there was another argument at 1 a.m. Breakfast was a brown lunch bag with a cup noddle soup, boiled egg, a banana and 2 slices a bread (no toaster) Jelly was on a large jar with a spoon in it, all messy from people spill over the border of the jar into the tablecloth, some butter, some cereal with the gallons of milk on the table, coffee, only decaf.  just warm, and when you came in you had to show you room card and this lady that looked like they picked her up from...The worst hotel ever,  service was terrible, people at fromt desk very ruth, holes in room ceiling, towel rack falling from wall, tiolet paper holder broken, roaches in the rooms, flying little insects in beds, ripped window sheers, duty towels in tubs, buttons missing on phones, some rooms missing towels, rooms with families of 4 or 5 only 2 towels and to wash cloths and when called the front desk for extra towels were told to come and get them and hang up on the person on the phone, only one card to open door so if one person went out the other couldn't get in and when asked for a second card they got angry, treated the person bad, that they couldn't be giving out cards and when finaly they give the card the other person couldn't get in because they changed the code so there was another argument at 1 a.m. Breakfast was a brown lunch bag with a cup noddle soup, boiled egg, a banana and 2 slices a bread (no toaster) Jelly was on a large jar with a spoon in it, all messy from people spill over the border of the jar into the tablecloth, some butter, some cereal with the gallons of milk on the table, coffee, only decaf.  just warm, and when you came in you had to show you room card and this lady that looked like they picked her up from the street would write the room nunber down and how many bags you were taking.  Just ridiculous and very ruth management.  These people don't know what they are doing.  Will not recomend this hotel to no one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r351957834-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>351957834</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>The worst hotel i ever stayed, there were roaches in the room towels were dirty they ask you for a 200 dollar deposit and at check oit they still go check the room to see how you left it i was like go check the room before you sell it to the guest and clean your dirty room i will never stay here again even for free.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r337734356-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>337734356</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Stay Away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By far the worst Quality Inn I've ever stayed at. Actually the worst hotel ever! The room was dirty, toilet leaked at the base, light bulbs missing from lamps, towels looked dirty &amp; the carpet was filthy dirty. We are a mature couple and didn't feel safe with the shady people hanging around outside. The breakfast left little to be desired! </t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r290589960-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>290589960</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>YUCK!</t>
+  </si>
+  <si>
+    <t>1. This hotel advertises full breakfast, but truth is, there is NO BREAKFAST AT ALL, no toast... NOTHING!2. We checked into our (2) rooms around 7pm. NEITHER ROOM HAD TOWELS- --Zero!! They were being washed and we had to wait on.them.3. One of the rooms (a 2 queens room)had a toilet seat that was peeling apart.4. The same room had a towel rack fall off the wall, on one, when we put 2 shirts and a small bag on it.5.This same room had clearly not had the sheets changed from before because one bed a hair inside the sheets and the other bed , there was BLOOD ON.THE BED!!!BEWARE OF THIS PLACE! Yuck! I would NEVER come here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>1. This hotel advertises full breakfast, but truth is, there is NO BREAKFAST AT ALL, no toast... NOTHING!2. We checked into our (2) rooms around 7pm. NEITHER ROOM HAD TOWELS- --Zero!! They were being washed and we had to wait on.them.3. One of the rooms (a 2 queens room)had a toilet seat that was peeling apart.4. The same room had a towel rack fall off the wall, on one, when we put 2 shirts and a small bag on it.5.This same room had clearly not had the sheets changed from before because one bed a hair inside the sheets and the other bed , there was BLOOD ON.THE BED!!!BEWARE OF THIS PLACE! Yuck! I would NEVER come here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r278726425-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>278726425</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Lot to improve</t>
+  </si>
+  <si>
+    <t>Run down property, poor management dirty toilet,poor beds, sticky tiles, looks like I am done with this property, no breakfast you have to be gold or diamond member to recieve breakfast. No guest computer. Very poor service.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r274885492-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>274885492</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>NO hot breakfast as advertised!</t>
+  </si>
+  <si>
+    <t>This hotel is older and some rooms need maintenance, there were a few things that were broken in my room, a tile in the tub and striker plate on bathroom door was missing. I also had two ciggarette holes in my sheets! One of the main factors that helps me choose a location is if they provide hot breakfast which the website said this location did, but when we checked in we were informed they no longer did and they only provided a 10% discount at the Denny's next door if you showed your room key. I couldnt cancel or change reservation after that so that was a huge disappointment since I don't like Denny's and didn't want to take that much time for breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This hotel is older and some rooms need maintenance, there were a few things that were broken in my room, a tile in the tub and striker plate on bathroom door was missing. I also had two ciggarette holes in my sheets! One of the main factors that helps me choose a location is if they provide hot breakfast which the website said this location did, but when we checked in we were informed they no longer did and they only provided a 10% discount at the Denny's next door if you showed your room key. I couldnt cancel or change reservation after that so that was a huge disappointment since I don't like Denny's and didn't want to take that much time for breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r261702153-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>261702153</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>There are better hotels in the area</t>
+  </si>
+  <si>
+    <t>I thought it would be a good stay after the person checking me in was so friendly, and the housekeepers were helpful in getting me extra towels, but I was disappointed with my overall visit. I needed extra towels because there were only two of each in the room. The towels were nicer than you usually find at a Quality Inn though. There was no clock in the room, and a fridge will cost you an extra $15.The building needs a lot of work, and the toilet kept running on and off throughout the day/night. The bed was comfortable enough, but the pillows were lumpy and not comfortable. 
+What turned me off the most was when I went down for breakfast in the morning. I went to the breakfast room about 20 minutes before it was supposed to close, and a lot of food was gone. The room was a total mess, too, with people's plates, cups, napkins, and leftover food on a lot of the tables. I understand that maybe the hotel was short staffed (I don't expect everything to be perfect), but when I went to the front desk to ask if they had anymore jelly, a lady told me she would check. I finished my breakfast without hearing anything from the lady, and when I went to check out she just looked at me and said "I am sorry, but we don't have anymore." I told her...I thought it would be a good stay after the person checking me in was so friendly, and the housekeepers were helpful in getting me extra towels, but I was disappointed with my overall visit. I needed extra towels because there were only two of each in the room. The towels were nicer than you usually find at a Quality Inn though. There was no clock in the room, and a fridge will cost you an extra $15.The building needs a lot of work, and the toilet kept running on and off throughout the day/night. The bed was comfortable enough, but the pillows were lumpy and not comfortable. What turned me off the most was when I went down for breakfast in the morning. I went to the breakfast room about 20 minutes before it was supposed to close, and a lot of food was gone. The room was a total mess, too, with people's plates, cups, napkins, and leftover food on a lot of the tables. I understand that maybe the hotel was short staffed (I don't expect everything to be perfect), but when I went to the front desk to ask if they had anymore jelly, a lady told me she would check. I finished my breakfast without hearing anything from the lady, and when I went to check out she just looked at me and said "I am sorry, but we don't have anymore." I told her along with the other two people working at the front desk (3 people) that they might want to check out the breakfast room because it was very dirty and they were short a lot of food, and it was abundantly clear by there uncaring response that they didn't care. The least they could have done (at least one of them) was to make it seemed like they cared. They weren't acting like owners. It came across to me that it wasn't their problem. It is too bad, even a little acknowledgement from one of them like they cared would have left me with a different impression.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I thought it would be a good stay after the person checking me in was so friendly, and the housekeepers were helpful in getting me extra towels, but I was disappointed with my overall visit. I needed extra towels because there were only two of each in the room. The towels were nicer than you usually find at a Quality Inn though. There was no clock in the room, and a fridge will cost you an extra $15.The building needs a lot of work, and the toilet kept running on and off throughout the day/night. The bed was comfortable enough, but the pillows were lumpy and not comfortable. 
+What turned me off the most was when I went down for breakfast in the morning. I went to the breakfast room about 20 minutes before it was supposed to close, and a lot of food was gone. The room was a total mess, too, with people's plates, cups, napkins, and leftover food on a lot of the tables. I understand that maybe the hotel was short staffed (I don't expect everything to be perfect), but when I went to the front desk to ask if they had anymore jelly, a lady told me she would check. I finished my breakfast without hearing anything from the lady, and when I went to check out she just looked at me and said "I am sorry, but we don't have anymore." I told her...I thought it would be a good stay after the person checking me in was so friendly, and the housekeepers were helpful in getting me extra towels, but I was disappointed with my overall visit. I needed extra towels because there were only two of each in the room. The towels were nicer than you usually find at a Quality Inn though. There was no clock in the room, and a fridge will cost you an extra $15.The building needs a lot of work, and the toilet kept running on and off throughout the day/night. The bed was comfortable enough, but the pillows were lumpy and not comfortable. What turned me off the most was when I went down for breakfast in the morning. I went to the breakfast room about 20 minutes before it was supposed to close, and a lot of food was gone. The room was a total mess, too, with people's plates, cups, napkins, and leftover food on a lot of the tables. I understand that maybe the hotel was short staffed (I don't expect everything to be perfect), but when I went to the front desk to ask if they had anymore jelly, a lady told me she would check. I finished my breakfast without hearing anything from the lady, and when I went to check out she just looked at me and said "I am sorry, but we don't have anymore." I told her along with the other two people working at the front desk (3 people) that they might want to check out the breakfast room because it was very dirty and they were short a lot of food, and it was abundantly clear by there uncaring response that they didn't care. The least they could have done (at least one of them) was to make it seemed like they cared. They weren't acting like owners. It came across to me that it wasn't their problem. It is too bad, even a little acknowledgement from one of them like they cared would have left me with a different impression.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r258329209-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>258329209</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>Worst Hotel Experience Ever</t>
+  </si>
+  <si>
+    <t>First let me start off by saying that if you are looking for quiet, decent and bug free room this is not the place.  The noise was ridiculously loud when trying to sleep any where from children yelling and running around to people drinking in pool area after pool was supposed to be closed.  Water bugs crawling around in our room plus problems with hotel checking in after the stay was completely paid up front and checking if room was ready told by supervisor that it was there but to come after 9 am to check to not being allowed to check by PM staff for some ridiculous reason.  I have never had such a terrible experience as I have had here...highly recommend to search elsewhere because Supervisor here was a joke....I asked her for the name of worker that gave me a hard time checking in so I could report him to corporate..she gave me some lame excuse she didn't know who it was when she just had to look in her computer system to see the person that logged in to use the register and system as if i am some computer illiterate person....best believe I will be calling corporate because they are only open Monday - Friday....how convenient for them!MoreShow less</t>
+  </si>
+  <si>
+    <t>First let me start off by saying that if you are looking for quiet, decent and bug free room this is not the place.  The noise was ridiculously loud when trying to sleep any where from children yelling and running around to people drinking in pool area after pool was supposed to be closed.  Water bugs crawling around in our room plus problems with hotel checking in after the stay was completely paid up front and checking if room was ready told by supervisor that it was there but to come after 9 am to check to not being allowed to check by PM staff for some ridiculous reason.  I have never had such a terrible experience as I have had here...highly recommend to search elsewhere because Supervisor here was a joke....I asked her for the name of worker that gave me a hard time checking in so I could report him to corporate..she gave me some lame excuse she didn't know who it was when she just had to look in her computer system to see the person that logged in to use the register and system as if i am some computer illiterate person....best believe I will be calling corporate because they are only open Monday - Friday....how convenient for them!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r246233388-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>246233388</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Avoid if you can</t>
+  </si>
+  <si>
+    <t>The service and cleaning needs improvement. No hot water in our room. Front desk does not care. 1 person trying to take care 100 people came out of tour bus. Room smells so bad. Not sure why choice hotels keep this kind of hotel in the chain.Go some where else.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r218417038-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>218417038</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Poor location&amp;food nice staff</t>
+  </si>
+  <si>
+    <t>well firstly I would like to say about the location. friends it was far from the main city, and Artesia can be considered outskirts of LA. I traveled from Vegas to LA via bus, and from the bus station it took me 3 local buses and 2 metro lines and then on foot to reach the place. They also have a tie up with a local taxi vendor, but i suggest call yellow cab for transportation as the connectivity is very poor. The nearest metro station is Norwalk (5 miles) from the place; and there is just 1 public bus connecting the area no.62. They offer free Wi-Fi and breakfast but while the internet connection is great, the breakfast serve is awful and boring. The staff however were friendly and helpful. Will not come here again for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>well firstly I would like to say about the location. friends it was far from the main city, and Artesia can be considered outskirts of LA. I traveled from Vegas to LA via bus, and from the bus station it took me 3 local buses and 2 metro lines and then on foot to reach the place. They also have a tie up with a local taxi vendor, but i suggest call yellow cab for transportation as the connectivity is very poor. The nearest metro station is Norwalk (5 miles) from the place; and there is just 1 public bus connecting the area no.62. They offer free Wi-Fi and breakfast but while the internet connection is great, the breakfast serve is awful and boring. The staff however were friendly and helpful. Will not come here again for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r207590204-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>207590204</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Very Unsatisfactory!</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel many times and the most recent experience over Memorial Day weekend did for me.  I will probably never consider this hotel for my next stay - unless it gets renovated and does a better job of making sure all guests get breakfast and the staff get trained on how to interact with guests in a pleasant manner...Pros: 1. Nice location          2. Safe neighborhood and night patrols (saw a security patrol car in the parking lot)Cons:          1.  Doors are a challenge to open.          2.  Green pool.          3.  Room - Smelly and loud.          4.  Bus tour groups with people from third world countries who lacked basic etiquette and carried away trays of Muffins back to the rooms (when the staff went inside to get some thing else for another guest).           5.  At 8:30 in the morning when the wife asked them for some fruit, the staff said today's quota reached (again, people taking tons of fruit outside of the breakfast area).          6.  At the time of checkout, the front office clerk did not even ask us if our stay was good and did not even print out the receipt.  (Almost always, the person at the check out counter would thank us for staying at their hotel and invite us back to stay with them.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel many times and the most recent experience over Memorial Day weekend did for me.  I will probably never consider this hotel for my next stay - unless it gets renovated and does a better job of making sure all guests get breakfast and the staff get trained on how to interact with guests in a pleasant manner...Pros: 1. Nice location          2. Safe neighborhood and night patrols (saw a security patrol car in the parking lot)Cons:          1.  Doors are a challenge to open.          2.  Green pool.          3.  Room - Smelly and loud.          4.  Bus tour groups with people from third world countries who lacked basic etiquette and carried away trays of Muffins back to the rooms (when the staff went inside to get some thing else for another guest).           5.  At 8:30 in the morning when the wife asked them for some fruit, the staff said today's quota reached (again, people taking tons of fruit outside of the breakfast area).          6.  At the time of checkout, the front office clerk did not even ask us if our stay was good and did not even print out the receipt.  (Almost always, the person at the check out counter would thank us for staying at their hotel and invite us back to stay with them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r200348427-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>200348427</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Just in the limit of ok</t>
+  </si>
+  <si>
+    <t>This is the type of place you ned to be around Disney, Clean, safe and basic, just to go back, sleep to be ready for next day adventure. The only downside is the size of the breakfast area that just does not accommodate the capacity.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r188616532-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>188616532</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>excellent change</t>
+  </si>
+  <si>
+    <t>i saw the excellent update in this hotel, more clean, nice service in the front desk, feel warm.much better than six months ago when i been here. great. I asked front desk, knew they changed the ownership. wish them to keep it.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r169810714-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>169810714</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>Run away don't walk run!!!!!!!</t>
+  </si>
+  <si>
+    <t>Doors don't close properly, u have to push or slam them to lock.  God awful smell of smoke and mildue mixture. Right next to a highway exit great easy on off location. Internet doesn't work. 3 different front desk staff with 3 different excuses!!!! If u are going to lie get your stories straight. I am a choice hotel property owner in Texas and New Mexico. I would be ashamed if my rooms were this bad. Breakfast was a joke, ran out of orange juice a hour before breakfast ran out 2 days in a row!!!!! Second day waffle machine(which there is 1 for a hotel of close to 150 units!!!!) stopped cooking waffles on 1 side. I am glad the coffee machine wasn't broken at this hotel. Pool on the other hand was very clean and very big. Hot tub outside was bigger then I've ever seen. I guess I know why there is a Denny's in the parking lot!!!!!!!!  For less then the average price of this hotel very good hotels near by. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Doors don't close properly, u have to push or slam them to lock.  God awful smell of smoke and mildue mixture. Right next to a highway exit great easy on off location. Internet doesn't work. 3 different front desk staff with 3 different excuses!!!! If u are going to lie get your stories straight. I am a choice hotel property owner in Texas and New Mexico. I would be ashamed if my rooms were this bad. Breakfast was a joke, ran out of orange juice a hour before breakfast ran out 2 days in a row!!!!! Second day waffle machine(which there is 1 for a hotel of close to 150 units!!!!) stopped cooking waffles on 1 side. I am glad the coffee machine wasn't broken at this hotel. Pool on the other hand was very clean and very big. Hot tub outside was bigger then I've ever seen. I guess I know why there is a Denny's in the parking lot!!!!!!!!  For less then the average price of this hotel very good hotels near by. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r169294434-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>169294434</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>Total disappointment in this hotel !!!</t>
+  </si>
+  <si>
+    <t>Upon checking on the website ,  i booked 4 nights stay in  this hotel with Orbitz as it is near my relative's place.  Requested for a handicap room upon check in, was given a room  on 3rd floor. There was no signages at all to show where is the lift to our room. But certainly many wall signages with "Warning, Security Cameras in Use". The room key doesnt work, had to change it at the front desk. Totally disappointed to find there is not wall plug for our laptop connection. Called the front desk, the maintenance guy came but didnt seem so happy to help. he gave us a big chunk of extenion wires , told us to push the television cabinet out to plug it in. At this moment, we insisted on a room change. They changed our room to the far end of the holel buildling. The elevator near this room is out of order . We had to walk a distance down to the lobby for our breakfast &amp; out of the hotel . It is totally annoying when our room keys did not work for the next few times when we come back. I noticed many guests had the same problem like us, they were waiting outside their room , trying out their keys. When i tried to cut short our stay, the front desk staff replied that its not allowed as we paid our bills...Upon checking on the website ,  i booked 4 nights stay in  this hotel with Orbitz as it is near my relative's place.  Requested for a handicap room upon check in, was given a room  on 3rd floor. There was no signages at all to show where is the lift to our room. But certainly many wall signages with "Warning, Security Cameras in Use". The room key doesnt work, had to change it at the front desk. Totally disappointed to find there is not wall plug for our laptop connection. Called the front desk, the maintenance guy came but didnt seem so happy to help. he gave us a big chunk of extenion wires , told us to push the television cabinet out to plug it in. At this moment, we insisted on a room change. They changed our room to the far end of the holel buildling. The elevator near this room is out of order . We had to walk a distance down to the lobby for our breakfast &amp; out of the hotel . It is totally annoying when our room keys did not work for the next few times when we come back. I noticed many guests had the same problem like us, they were waiting outside their room , trying out their keys. When i tried to cut short our stay, the front desk staff replied that its not allowed as we paid our bills through a 3rd party.!!!There was no coffee replenishment in the room, upon request, the service staff replies there is no stock !!! They closed the Breakfast room but put us into a Meeting Room for our breakfast,The reason being there were groups in-house, I was very disgusted to notice that bedsheet is being used as tablecloth, guess they can't cope with a full house breakfast situation !!   In the breakfast room, the service staff seemed more concerned in cleaning up the place then to assist guests who are not at all familiar with the waffle making maching.!!!! Our key could not open the Laundry room, the staff just forced open the window sill, climbed in to open the door for us !!! It seemed to me this is a malfunction hotel. I would never never recommend this hotel to any of my friends or clients !!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon checking on the website ,  i booked 4 nights stay in  this hotel with Orbitz as it is near my relative's place.  Requested for a handicap room upon check in, was given a room  on 3rd floor. There was no signages at all to show where is the lift to our room. But certainly many wall signages with "Warning, Security Cameras in Use". The room key doesnt work, had to change it at the front desk. Totally disappointed to find there is not wall plug for our laptop connection. Called the front desk, the maintenance guy came but didnt seem so happy to help. he gave us a big chunk of extenion wires , told us to push the television cabinet out to plug it in. At this moment, we insisted on a room change. They changed our room to the far end of the holel buildling. The elevator near this room is out of order . We had to walk a distance down to the lobby for our breakfast &amp; out of the hotel . It is totally annoying when our room keys did not work for the next few times when we come back. I noticed many guests had the same problem like us, they were waiting outside their room , trying out their keys. When i tried to cut short our stay, the front desk staff replied that its not allowed as we paid our bills...Upon checking on the website ,  i booked 4 nights stay in  this hotel with Orbitz as it is near my relative's place.  Requested for a handicap room upon check in, was given a room  on 3rd floor. There was no signages at all to show where is the lift to our room. But certainly many wall signages with "Warning, Security Cameras in Use". The room key doesnt work, had to change it at the front desk. Totally disappointed to find there is not wall plug for our laptop connection. Called the front desk, the maintenance guy came but didnt seem so happy to help. he gave us a big chunk of extenion wires , told us to push the television cabinet out to plug it in. At this moment, we insisted on a room change. They changed our room to the far end of the holel buildling. The elevator near this room is out of order . We had to walk a distance down to the lobby for our breakfast &amp; out of the hotel . It is totally annoying when our room keys did not work for the next few times when we come back. I noticed many guests had the same problem like us, they were waiting outside their room , trying out their keys. When i tried to cut short our stay, the front desk staff replied that its not allowed as we paid our bills through a 3rd party.!!!There was no coffee replenishment in the room, upon request, the service staff replies there is no stock !!! They closed the Breakfast room but put us into a Meeting Room for our breakfast,The reason being there were groups in-house, I was very disgusted to notice that bedsheet is being used as tablecloth, guess they can't cope with a full house breakfast situation !!   In the breakfast room, the service staff seemed more concerned in cleaning up the place then to assist guests who are not at all familiar with the waffle making maching.!!!! Our key could not open the Laundry room, the staff just forced open the window sill, climbed in to open the door for us !!! It seemed to me this is a malfunction hotel. I would never never recommend this hotel to any of my friends or clients !!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r154310996-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>154310996</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r150964093-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>150964093</t>
+  </si>
+  <si>
+    <t>01/29/2013</t>
+  </si>
+  <si>
+    <t>Great service, but bad hotel</t>
+  </si>
+  <si>
+    <t>we got this hotel using our reward point, on the website it shows all the amenities we will get, such as working desk, refrige, but when I get to the room there's no refrige, I asked the front desk they said refrige isn't available for reward point night, it would be nice if they or Choice hotel.com can fix this, because this is misleading to the customer.  When I'm getting ready to sleep I found some "dirty spot" on the blanket, so I asked for another one and they said they don't have any because all the rooms are booked (I know it's not true because I checked their website room availability and I still see a bunch), I called again and tell them I can't sleep with dirty blanket and finally they delivered one to me.  Breakfast isn't so good at all, but I think this happens to all the hotel...I give them 2 star for being super polite and friendly, but the hotel itself isn't great at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>we got this hotel using our reward point, on the website it shows all the amenities we will get, such as working desk, refrige, but when I get to the room there's no refrige, I asked the front desk they said refrige isn't available for reward point night, it would be nice if they or Choice hotel.com can fix this, because this is misleading to the customer.  When I'm getting ready to sleep I found some "dirty spot" on the blanket, so I asked for another one and they said they don't have any because all the rooms are booked (I know it's not true because I checked their website room availability and I still see a bunch), I called again and tell them I can't sleep with dirty blanket and finally they delivered one to me.  Breakfast isn't so good at all, but I think this happens to all the hotel...I give them 2 star for being super polite and friendly, but the hotel itself isn't great at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r146854154-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>146854154</t>
+  </si>
+  <si>
+    <t>12/05/2012</t>
+  </si>
+  <si>
+    <t>A great night!</t>
+  </si>
+  <si>
+    <t>I stayed here on a Wednesday night and the staff at the hotel were amazing. I was greeted by am man named Brian whom was very professional. He was a great pleasure. I also had a GREAT nights sleep in my room no issues. The continental breakfast was ok, would rather have scrambled eggs, but hey its complimentary :-). Overall i'd recommend this hotel to anyone.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r135439683-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>135439683</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Great nights stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean rooms,comfy beds and great service from Izamara. I definitely recommend this hotel for anyone. Best bang for your buck.Ill be back in the future. Its right off of the highway.Great location.Breakfast was good and kept up for the amount of people </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r135261104-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>135261104</t>
+  </si>
+  <si>
+    <t>07/24/2012</t>
+  </si>
+  <si>
+    <t>Great Location, Good Service, Free Breakfast + Free Fast Internet</t>
+  </si>
+  <si>
+    <t>I have been staying here since the place was a Best Western years ago. The location is just off the 91 fwy and very convenient to go anywhere specially Disneyland using the carpool lane and bypassing the traffic. The internet connection is very fast and breakfast is good with do it yourself hot waffles, toast, cereals, boiled eggs, pastries, yogurt, Milk, juices, fruits and more!! The rooms are a bit run down but everything was working fine on all my visits. The front desk staff are very nice and helpful. For $65 to $75 you cant expect more. Last stay was July 2012. The parking is free and there is a Denny's restaurant in the same lot as the hotel so very convenient for late night dinners. Overall will go there again anytime!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I have been staying here since the place was a Best Western years ago. The location is just off the 91 fwy and very convenient to go anywhere specially Disneyland using the carpool lane and bypassing the traffic. The internet connection is very fast and breakfast is good with do it yourself hot waffles, toast, cereals, boiled eggs, pastries, yogurt, Milk, juices, fruits and more!! The rooms are a bit run down but everything was working fine on all my visits. The front desk staff are very nice and helpful. For $65 to $75 you cant expect more. Last stay was July 2012. The parking is free and there is a Denny's restaurant in the same lot as the hotel so very convenient for late night dinners. Overall will go there again anytime!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r129894698-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>129894698</t>
+  </si>
+  <si>
+    <t>05/13/2012</t>
+  </si>
+  <si>
+    <t>Service Quality?</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 3 nights during April 27 - 30 as our travel agent booked us into this hotel through Expedia.  We were locked out of our own room on the last night of our stay and later found that we had to move out of the room due to the upcoming renovation for the whole wings.  I didn't understand why they put us in the room where they have planned to renovate.  Couldn't the renovation wait for a night more?  At least, they could let us know when we checked in instead of locking us out of our own room and forced us to move.On top of that, they told us at the same time that the electricity company would cut out the electricity on that last night for maintenance.  They could not do anything as they had also received the notification themselves.  Compensation would have to be forgotten as the agent booked us thru Expedia.  Flash lights did not find their way to our rooms as promised.  Should they still call themselved "Quality Inn" or should they change their name to "Bad Quailty Inn"?The rooms were run down and cleanliness was questionable.  The rooms was noisy too.  However, on the positive side, the bed was hard but good for my back.  Breakfast was pretty good especially the hot waffles.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 3 nights during April 27 - 30 as our travel agent booked us into this hotel through Expedia.  We were locked out of our own room on the last night of our stay and later found that we had to move out of the room due to the upcoming renovation for the whole wings.  I didn't understand why they put us in the room where they have planned to renovate.  Couldn't the renovation wait for a night more?  At least, they could let us know when we checked in instead of locking us out of our own room and forced us to move.On top of that, they told us at the same time that the electricity company would cut out the electricity on that last night for maintenance.  They could not do anything as they had also received the notification themselves.  Compensation would have to be forgotten as the agent booked us thru Expedia.  Flash lights did not find their way to our rooms as promised.  Should they still call themselved "Quality Inn" or should they change their name to "Bad Quailty Inn"?The rooms were run down and cleanliness was questionable.  The rooms was noisy too.  However, on the positive side, the bed was hard but good for my back.  Breakfast was pretty good especially the hot waffles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r122582925-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>122582925</t>
+  </si>
+  <si>
+    <t>01/05/2012</t>
+  </si>
+  <si>
+    <t>Affordable, convinient and friendly</t>
+  </si>
+  <si>
+    <t>Decent place, nice breakfast, friendly staff, convenient location.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r122496417-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>122496417</t>
+  </si>
+  <si>
+    <t>01/03/2012</t>
+  </si>
+  <si>
+    <t>OK...clean, good location</t>
+  </si>
+  <si>
+    <t>An OK hotel in a good location, very good price, mediocre breakfast. and clean rooms.  Please note:  it is a motel with your room door to the outside.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r116058706-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>116058706</t>
+  </si>
+  <si>
+    <t>07/31/2011</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>For the price the hotel was alright although it could use an updating. The only real complaint was the housekeeping. We constantly had to ask for coffee, cups, shampoo and soap.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>Qualtiysales, Director of Sales at Artesia Inn &amp; Suites, responded to this reviewResponded August 24, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2011</t>
+  </si>
+  <si>
+    <t>For the price the hotel was alright although it could use an updating. The only real complaint was the housekeeping. We constantly had to ask for coffee, cups, shampoo and soap.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r101556814-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>101556814</t>
+  </si>
+  <si>
+    <t>03/25/2011</t>
+  </si>
+  <si>
+    <t>Truly a great experience</t>
+  </si>
+  <si>
+    <t>They handled our group of unruly teenagers with care and professionalism.  (I would not have been so kind,  given the way our mob often behaves,  but I digress). I suppose our requests were pretty simple,  but we put this hotel to the test and they did great.  Nothing was too much trouble,  and the manager, Mr. Todd,  worked through our complicated billing with good humor and charm.The pool is fine,  but having that Dennys so closeby really helped out on our expenses.  Not to mention Moons Over My Hammy!!!The room was very clean, spacious,  and the hotels comp breakfast was more than adequate.  The hotel is a great value,  and very close to the So California attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>They handled our group of unruly teenagers with care and professionalism.  (I would not have been so kind,  given the way our mob often behaves,  but I digress). I suppose our requests were pretty simple,  but we put this hotel to the test and they did great.  Nothing was too much trouble,  and the manager, Mr. Todd,  worked through our complicated billing with good humor and charm.The pool is fine,  but having that Dennys so closeby really helped out on our expenses.  Not to mention Moons Over My Hammy!!!The room was very clean, spacious,  and the hotels comp breakfast was more than adequate.  The hotel is a great value,  and very close to the So California attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r92191217-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>92191217</t>
+  </si>
+  <si>
+    <t>01/08/2011</t>
+  </si>
+  <si>
+    <t>not the best of hotel to stay in for more than three nights</t>
+  </si>
+  <si>
+    <t>Building work taking place on updating the hotel, some of the desk staff were helpful.  If you have a room facing the highway it will be very noisy.  Hotel does not change travellers cheques nor does it have change for washing machines.  You need to have had your breakfast by 9.00am as the staff clear away regardless that you have finished or not.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r85514431-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>85514431</t>
+  </si>
+  <si>
+    <t>10/31/2010</t>
+  </si>
+  <si>
+    <t>Not bad at all</t>
+  </si>
+  <si>
+    <t>We chose this hotel due to price and proximity to a wedding reception we were attending in Cerritos. We arrived after 9pm to check in and there were no other guests ahead of us waiting in the lobby. Check-in was efficient, but the clerk did have to check via her radio to verify that our room was ready before finishing our check-in. We had to ask the location of our room and the time breakfast was served; she didn't volunteer that information.
+Our room was located in the back building, which has interior corridors, on the second floor.  The main building (with exterior corridors) runs parallel to the freeway, and the back building is perpendicular, and our room was closer to the freeway.  Despite this, the freeway noise wasn't bad at all, even with the fan turned off (the fan was much louder than the freeway). When we did first enter the room, I noticed that the window was almost, but not quite closed; the freeway noise was noticeably reduced by closing it all the way.  Rather, it was our next door neighbors who woke us up around 2:30am when they started having some rather noisy fun.  The walls didn't do much to block noise (we could also hear doors in the hallway closing, they tended to slam shut rather loudly on their own), and this isn't totally unexpected in this price range.  We didn't have any issues with noise...We chose this hotel due to price and proximity to a wedding reception we were attending in Cerritos. We arrived after 9pm to check in and there were no other guests ahead of us waiting in the lobby. Check-in was efficient, but the clerk did have to check via her radio to verify that our room was ready before finishing our check-in. We had to ask the location of our room and the time breakfast was served; she didn't volunteer that information.Our room was located in the back building, which has interior corridors, on the second floor.  The main building (with exterior corridors) runs parallel to the freeway, and the back building is perpendicular, and our room was closer to the freeway.  Despite this, the freeway noise wasn't bad at all, even with the fan turned off (the fan was much louder than the freeway). When we did first enter the room, I noticed that the window was almost, but not quite closed; the freeway noise was noticeably reduced by closing it all the way.  Rather, it was our next door neighbors who woke us up around 2:30am when they started having some rather noisy fun.  The walls didn't do much to block noise (we could also hear doors in the hallway closing, they tended to slam shut rather loudly on their own), and this isn't totally unexpected in this price range.  We didn't have any issues with noise from outside the room on our second night.We didn't have the opportunity to sample the breakfast; even on weekends it ended at 9am and we chose to sleep in instead and went out to a restaurant. There is a Denny's in front of the motel for those who desire something close, though we didn't investigate and instead went elsewhere.The room itself was clean, and I didn't notice any significant issues. It felt like it was reasonably up to date. Shower pressure was adequate. The power supply to the room seemed questionable, with a few lights and the TV on, I noticed the lights flickering a couple of times.Check-out was efficient; as when we checked in there wasn't anyone else we had to wait for, and the clerk collected our keys, printed our receipt, and we were on our way.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>We chose this hotel due to price and proximity to a wedding reception we were attending in Cerritos. We arrived after 9pm to check in and there were no other guests ahead of us waiting in the lobby. Check-in was efficient, but the clerk did have to check via her radio to verify that our room was ready before finishing our check-in. We had to ask the location of our room and the time breakfast was served; she didn't volunteer that information.
+Our room was located in the back building, which has interior corridors, on the second floor.  The main building (with exterior corridors) runs parallel to the freeway, and the back building is perpendicular, and our room was closer to the freeway.  Despite this, the freeway noise wasn't bad at all, even with the fan turned off (the fan was much louder than the freeway). When we did first enter the room, I noticed that the window was almost, but not quite closed; the freeway noise was noticeably reduced by closing it all the way.  Rather, it was our next door neighbors who woke us up around 2:30am when they started having some rather noisy fun.  The walls didn't do much to block noise (we could also hear doors in the hallway closing, they tended to slam shut rather loudly on their own), and this isn't totally unexpected in this price range.  We didn't have any issues with noise...We chose this hotel due to price and proximity to a wedding reception we were attending in Cerritos. We arrived after 9pm to check in and there were no other guests ahead of us waiting in the lobby. Check-in was efficient, but the clerk did have to check via her radio to verify that our room was ready before finishing our check-in. We had to ask the location of our room and the time breakfast was served; she didn't volunteer that information.Our room was located in the back building, which has interior corridors, on the second floor.  The main building (with exterior corridors) runs parallel to the freeway, and the back building is perpendicular, and our room was closer to the freeway.  Despite this, the freeway noise wasn't bad at all, even with the fan turned off (the fan was much louder than the freeway). When we did first enter the room, I noticed that the window was almost, but not quite closed; the freeway noise was noticeably reduced by closing it all the way.  Rather, it was our next door neighbors who woke us up around 2:30am when they started having some rather noisy fun.  The walls didn't do much to block noise (we could also hear doors in the hallway closing, they tended to slam shut rather loudly on their own), and this isn't totally unexpected in this price range.  We didn't have any issues with noise from outside the room on our second night.We didn't have the opportunity to sample the breakfast; even on weekends it ended at 9am and we chose to sleep in instead and went out to a restaurant. There is a Denny's in front of the motel for those who desire something close, though we didn't investigate and instead went elsewhere.The room itself was clean, and I didn't notice any significant issues. It felt like it was reasonably up to date. Shower pressure was adequate. The power supply to the room seemed questionable, with a few lights and the TV on, I noticed the lights flickering a couple of times.Check-out was efficient; as when we checked in there wasn't anyone else we had to wait for, and the clerk collected our keys, printed our receipt, and we were on our way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r10679645-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>10679645</t>
+  </si>
+  <si>
+    <t>11/07/2007</t>
+  </si>
+  <si>
+    <t>"Plesantly surprised"</t>
+  </si>
+  <si>
+    <t>Had my concerns staying at this hotel!!  However, I was VERY suprised to be acknowledged upon cheking into the hotel.  When I checked into what appeared to be a NEWLY renovated room the front desk called to me to asked if everything was okay with my accommodations.  WOW!!!  Then upon waking up and going to the breakfast room which also appeared to be NEWLY renovated, the continental breakfast was more then what I expected. Once again, I was plesantly suprised with this hotel.</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r5363449-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>5363449</t>
+  </si>
+  <si>
+    <t>06/19/2006</t>
+  </si>
+  <si>
+    <t>A so-so experience</t>
+  </si>
+  <si>
+    <t>We stayed one night at the Quality Inn due to its close proximity to a wedding reception we were attending.  We had a king n/s room on the 2nd floor and received a discounted rate by showing our AAA card.  The room was adequate, nothing special.  The television's volume control was awful- one channel would be barely audible, the next would be blaring loud- very irritating when you're trying to find something to watch.  The breakfast was OK- basic continental breakfast available from 6:30-9:00 AM.  The hotel is literally right next to the 91 fwy, so it can be a little loud, but it's a decent value if you're on a budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed one night at the Quality Inn due to its close proximity to a wedding reception we were attending.  We had a king n/s room on the 2nd floor and received a discounted rate by showing our AAA card.  The room was adequate, nothing special.  The television's volume control was awful- one channel would be barely audible, the next would be blaring loud- very irritating when you're trying to find something to watch.  The breakfast was OK- basic continental breakfast available from 6:30-9:00 AM.  The hotel is literally right next to the 91 fwy, so it can be a little loud, but it's a decent value if you're on a budget.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1288,2020 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>153</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" t="s">
+        <v>153</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" t="s">
+        <v>199</v>
+      </c>
+      <c r="L25" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>201</v>
+      </c>
+      <c r="O25" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>208</v>
+      </c>
+      <c r="O26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" t="s">
+        <v>212</v>
+      </c>
+      <c r="L27" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" t="s">
+        <v>219</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>221</v>
+      </c>
+      <c r="X28" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
+        <v>227</v>
+      </c>
+      <c r="L29" t="s">
+        <v>228</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>229</v>
+      </c>
+      <c r="O29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>221</v>
+      </c>
+      <c r="X29" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O30" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>241</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>244</v>
+      </c>
+      <c r="J32" t="s">
+        <v>245</v>
+      </c>
+      <c r="K32" t="s">
+        <v>246</v>
+      </c>
+      <c r="L32" t="s">
+        <v>247</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>248</v>
+      </c>
+      <c r="O32" t="s">
+        <v>249</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>251</v>
+      </c>
+      <c r="J33" t="s">
+        <v>252</v>
+      </c>
+      <c r="K33" t="s">
+        <v>253</v>
+      </c>
+      <c r="L33" t="s">
+        <v>254</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>255</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_16.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_16.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="288">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>erikgutierrez69</t>
+  </si>
+  <si>
     <t>06/27/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>to start off I was double charged for a room I had already booked online. mind you I book online with intent to arrive to a single king bed, when I arrived to hotel to check in they charged me again (without my consent) for a room with 2 queens &amp; stated they don't offer king beds. the next day when I realized the charge &amp; went to office to dispute they stated they couldn't do refund did have access to managers pw. so had to trust their manager would do it. she than refunded a lesser amount than what was charged due to a $5 check in fee which wasn't disclosed . room was filthy &amp; dirty .More</t>
   </si>
   <si>
+    <t>jmendez021980</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r503338857-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>This hotel has the most rude and closed minded people working. worst customer service. I had booked the hotel for one night. When i went inside the room I notice the remote was broken not working and they tried to charge me the remote. I had just checked in no more than 5 minutes. After that day I checked out. For some reason I had some other friends that had booked the next day there and I told them not to go to that hotel but they forced me to get one more night at that hotel since they had already booked. So i go and ask for another room for one night. The lady recognized me and gave me the same room. I go up there and the room was dirty. They had rented it to someone else after i checkout and never cleaned it since it had things that I never left on the room. I went to tell her she said you stayed there last night . That they were not going to clean it since it was my room and i stayed there which makes no sense. I had to get a refund to get out of there and on top of that they barely gave me a refund. My room had no microwave no fridge while my friends did have microwave and fridge but did not have iron and ironboard. Most rooms are garbageMore</t>
   </si>
   <si>
+    <t>IRENE C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r502344436-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Leonilda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r435485220-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>The worst hotel ever,  service was terrible, people at fromt desk very ruth, holes in room ceiling, towel rack falling from wall, tiolet paper holder broken, roaches in the rooms, flying little insects in beds, ripped window sheers, duty towels in tubs, buttons missing on phones, some rooms missing towels, rooms with families of 4 or 5 only 2 towels and to wash cloths and when called the front desk for extra towels were told to come and get them and hang up on the person on the phone, only one card to open door so if one person went out the other couldn't get in and when asked for a second card they got angry, treated the person bad, that they couldn't be giving out cards and when finaly they give the card the other person couldn't get in because they changed the code so there was another argument at 1 a.m. Breakfast was a brown lunch bag with a cup noddle soup, boiled egg, a banana and 2 slices a bread (no toaster) Jelly was on a large jar with a spoon in it, all messy from people spill over the border of the jar into the tablecloth, some butter, some cereal with the gallons of milk on the table, coffee, only decaf.  just warm, and when you came in you had to show you room card and this lady that looked like they picked her up from...The worst hotel ever,  service was terrible, people at fromt desk very ruth, holes in room ceiling, towel rack falling from wall, tiolet paper holder broken, roaches in the rooms, flying little insects in beds, ripped window sheers, duty towels in tubs, buttons missing on phones, some rooms missing towels, rooms with families of 4 or 5 only 2 towels and to wash cloths and when called the front desk for extra towels were told to come and get them and hang up on the person on the phone, only one card to open door so if one person went out the other couldn't get in and when asked for a second card they got angry, treated the person bad, that they couldn't be giving out cards and when finaly they give the card the other person couldn't get in because they changed the code so there was another argument at 1 a.m. Breakfast was a brown lunch bag with a cup noddle soup, boiled egg, a banana and 2 slices a bread (no toaster) Jelly was on a large jar with a spoon in it, all messy from people spill over the border of the jar into the tablecloth, some butter, some cereal with the gallons of milk on the table, coffee, only decaf.  just warm, and when you came in you had to show you room card and this lady that looked like they picked her up from the street would write the room nunber down and how many bags you were taking.  Just ridiculous and very ruth management.  These people don't know what they are doing.  Will not recomend this hotel to no one.More</t>
   </si>
   <si>
+    <t>jimmy19891989</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r351957834-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Rysgama2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r337734356-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Cyndy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r290589960-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
     <t>1. This hotel advertises full breakfast, but truth is, there is NO BREAKFAST AT ALL, no toast... NOTHING!2. We checked into our (2) rooms around 7pm. NEITHER ROOM HAD TOWELS- --Zero!! They were being washed and we had to wait on.them.3. One of the rooms (a 2 queens room)had a toilet seat that was peeling apart.4. The same room had a towel rack fall off the wall, on one, when we put 2 shirts and a small bag on it.5.This same room had clearly not had the sheets changed from before because one bed a hair inside the sheets and the other bed , there was BLOOD ON.THE BED!!!BEWARE OF THIS PLACE! Yuck! I would NEVER come here again!More</t>
   </si>
   <si>
+    <t>Sam G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r278726425-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Peppertaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r274885492-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -343,6 +370,9 @@
   </si>
   <si>
     <t>This hotel is older and some rooms need maintenance, there were a few things that were broken in my room, a tile in the tub and striker plate on bathroom door was missing. I also had two ciggarette holes in my sheets! One of the main factors that helps me choose a location is if they provide hot breakfast which the website said this location did, but when we checked in we were informed they no longer did and they only provided a 10% discount at the Denny's next door if you showed your room key. I couldnt cancel or change reservation after that so that was a huge disappointment since I don't like Denny's and didn't want to take that much time for breakfast.More</t>
+  </si>
+  <si>
+    <t>WindTraveler101</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r261702153-Artesia_Inn_Suites-Artesia_California.html</t>
@@ -368,6 +398,9 @@
 What turned me off the most was when I went down for breakfast in the morning. I went to the breakfast room about 20 minutes before it was supposed to close, and a lot of food was gone. The room was a total mess, too, with people's plates, cups, napkins, and leftover food on a lot of the tables. I understand that maybe the hotel was short staffed (I don't expect everything to be perfect), but when I went to the front desk to ask if they had anymore jelly, a lady told me she would check. I finished my breakfast without hearing anything from the lady, and when I went to check out she just looked at me and said "I am sorry, but we don't have anymore." I told her...I thought it would be a good stay after the person checking me in was so friendly, and the housekeepers were helpful in getting me extra towels, but I was disappointed with my overall visit. I needed extra towels because there were only two of each in the room. The towels were nicer than you usually find at a Quality Inn though. There was no clock in the room, and a fridge will cost you an extra $15.The building needs a lot of work, and the toilet kept running on and off throughout the day/night. The bed was comfortable enough, but the pillows were lumpy and not comfortable. What turned me off the most was when I went down for breakfast in the morning. I went to the breakfast room about 20 minutes before it was supposed to close, and a lot of food was gone. The room was a total mess, too, with people's plates, cups, napkins, and leftover food on a lot of the tables. I understand that maybe the hotel was short staffed (I don't expect everything to be perfect), but when I went to the front desk to ask if they had anymore jelly, a lady told me she would check. I finished my breakfast without hearing anything from the lady, and when I went to check out she just looked at me and said "I am sorry, but we don't have anymore." I told her along with the other two people working at the front desk (3 people) that they might want to check out the breakfast room because it was very dirty and they were short a lot of food, and it was abundantly clear by there uncaring response that they didn't care. The least they could have done (at least one of them) was to make it seemed like they cared. They weren't acting like owners. It came across to me that it wasn't their problem. It is too bad, even a little acknowledgement from one of them like they cared would have left me with a different impression.More</t>
   </si>
   <si>
+    <t>Erlinda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r258329209-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -386,6 +419,9 @@
     <t>First let me start off by saying that if you are looking for quiet, decent and bug free room this is not the place.  The noise was ridiculously loud when trying to sleep any where from children yelling and running around to people drinking in pool area after pool was supposed to be closed.  Water bugs crawling around in our room plus problems with hotel checking in after the stay was completely paid up front and checking if room was ready told by supervisor that it was there but to come after 9 am to check to not being allowed to check by PM staff for some ridiculous reason.  I have never had such a terrible experience as I have had here...highly recommend to search elsewhere because Supervisor here was a joke....I asked her for the name of worker that gave me a hard time checking in so I could report him to corporate..she gave me some lame excuse she didn't know who it was when she just had to look in her computer system to see the person that logged in to use the register and system as if i am some computer illiterate person....best believe I will be calling corporate because they are only open Monday - Friday....how convenient for them!More</t>
   </si>
   <si>
+    <t>Sam987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r246233388-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -401,6 +437,9 @@
     <t>The service and cleaning needs improvement. No hot water in our room. Front desk does not care. 1 person trying to take care 100 people came out of tour bus. Room smells so bad. Not sure why choice hotels keep this kind of hotel in the chain.Go some where else.</t>
   </si>
   <si>
+    <t>ranjeeta b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r218417038-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -422,6 +461,9 @@
     <t>well firstly I would like to say about the location. friends it was far from the main city, and Artesia can be considered outskirts of LA. I traveled from Vegas to LA via bus, and from the bus station it took me 3 local buses and 2 metro lines and then on foot to reach the place. They also have a tie up with a local taxi vendor, but i suggest call yellow cab for transportation as the connectivity is very poor. The nearest metro station is Norwalk (5 miles) from the place; and there is just 1 public bus connecting the area no.62. They offer free Wi-Fi and breakfast but while the internet connection is great, the breakfast serve is awful and boring. The staff however were friendly and helpful. Will not come here again for sure.More</t>
   </si>
   <si>
+    <t>baddy11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r207590204-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -443,6 +485,9 @@
     <t>I have stayed at this hotel many times and the most recent experience over Memorial Day weekend did for me.  I will probably never consider this hotel for my next stay - unless it gets renovated and does a better job of making sure all guests get breakfast and the staff get trained on how to interact with guests in a pleasant manner...Pros: 1. Nice location          2. Safe neighborhood and night patrols (saw a security patrol car in the parking lot)Cons:          1.  Doors are a challenge to open.          2.  Green pool.          3.  Room - Smelly and loud.          4.  Bus tour groups with people from third world countries who lacked basic etiquette and carried away trays of Muffins back to the rooms (when the staff went inside to get some thing else for another guest).           5.  At 8:30 in the morning when the wife asked them for some fruit, the staff said today's quota reached (again, people taking tons of fruit outside of the breakfast area).          6.  At the time of checkout, the front office clerk did not even ask us if our stay was good and did not even print out the receipt.  (Almost always, the person at the check out counter would thank us for staying at their hotel and invite us back to stay with them.More</t>
   </si>
   <si>
+    <t>EliasRobles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r200348427-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -461,6 +506,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>lisheng2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r188616532-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -482,6 +530,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>KEYYTRIGER</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r169810714-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -503,6 +554,9 @@
     <t>Doors don't close properly, u have to push or slam them to lock.  God awful smell of smoke and mildue mixture. Right next to a highway exit great easy on off location. Internet doesn't work. 3 different front desk staff with 3 different excuses!!!! If u are going to lie get your stories straight. I am a choice hotel property owner in Texas and New Mexico. I would be ashamed if my rooms were this bad. Breakfast was a joke, ran out of orange juice a hour before breakfast ran out 2 days in a row!!!!! Second day waffle machine(which there is 1 for a hotel of close to 150 units!!!!) stopped cooking waffles on 1 side. I am glad the coffee machine wasn't broken at this hotel. Pool on the other hand was very clean and very big. Hot tub outside was bigger then I've ever seen. I guess I know why there is a Denny's in the parking lot!!!!!!!!  For less then the average price of this hotel very good hotels near by. More</t>
   </si>
   <si>
+    <t>WorldGlutton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r169294434-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -521,6 +575,9 @@
     <t>Upon checking on the website ,  i booked 4 nights stay in  this hotel with Orbitz as it is near my relative's place.  Requested for a handicap room upon check in, was given a room  on 3rd floor. There was no signages at all to show where is the lift to our room. But certainly many wall signages with "Warning, Security Cameras in Use". The room key doesnt work, had to change it at the front desk. Totally disappointed to find there is not wall plug for our laptop connection. Called the front desk, the maintenance guy came but didnt seem so happy to help. he gave us a big chunk of extenion wires , told us to push the television cabinet out to plug it in. At this moment, we insisted on a room change. They changed our room to the far end of the holel buildling. The elevator near this room is out of order . We had to walk a distance down to the lobby for our breakfast &amp; out of the hotel . It is totally annoying when our room keys did not work for the next few times when we come back. I noticed many guests had the same problem like us, they were waiting outside their room , trying out their keys. When i tried to cut short our stay, the front desk staff replied that its not allowed as we paid our bills...Upon checking on the website ,  i booked 4 nights stay in  this hotel with Orbitz as it is near my relative's place.  Requested for a handicap room upon check in, was given a room  on 3rd floor. There was no signages at all to show where is the lift to our room. But certainly many wall signages with "Warning, Security Cameras in Use". The room key doesnt work, had to change it at the front desk. Totally disappointed to find there is not wall plug for our laptop connection. Called the front desk, the maintenance guy came but didnt seem so happy to help. he gave us a big chunk of extenion wires , told us to push the television cabinet out to plug it in. At this moment, we insisted on a room change. They changed our room to the far end of the holel buildling. The elevator near this room is out of order . We had to walk a distance down to the lobby for our breakfast &amp; out of the hotel . It is totally annoying when our room keys did not work for the next few times when we come back. I noticed many guests had the same problem like us, they were waiting outside their room , trying out their keys. When i tried to cut short our stay, the front desk staff replied that its not allowed as we paid our bills through a 3rd party.!!!There was no coffee replenishment in the room, upon request, the service staff replies there is no stock !!! They closed the Breakfast room but put us into a Meeting Room for our breakfast,The reason being there were groups in-house, I was very disgusted to notice that bedsheet is being used as tablecloth, guess they can't cope with a full house breakfast situation !!   In the breakfast room, the service staff seemed more concerned in cleaning up the place then to assist guests who are not at all familiar with the waffle making maching.!!!! Our key could not open the Laundry room, the staff just forced open the window sill, climbed in to open the door for us !!! It seemed to me this is a malfunction hotel. I would never never recommend this hotel to any of my friends or clients !!!!More</t>
   </si>
   <si>
+    <t>Crystal N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r154310996-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -533,6 +590,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Cindy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r150964093-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -554,6 +614,9 @@
     <t>we got this hotel using our reward point, on the website it shows all the amenities we will get, such as working desk, refrige, but when I get to the room there's no refrige, I asked the front desk they said refrige isn't available for reward point night, it would be nice if they or Choice hotel.com can fix this, because this is misleading to the customer.  When I'm getting ready to sleep I found some "dirty spot" on the blanket, so I asked for another one and they said they don't have any because all the rooms are booked (I know it's not true because I checked their website room availability and I still see a bunch), I called again and tell them I can't sleep with dirty blanket and finally they delivered one to me.  Breakfast isn't so good at all, but I think this happens to all the hotel...I give them 2 star for being super polite and friendly, but the hotel itself isn't great at all.More</t>
   </si>
   <si>
+    <t>John H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r146854154-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -572,6 +635,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>tv1997</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r135439683-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -587,6 +653,9 @@
     <t xml:space="preserve">Clean rooms,comfy beds and great service from Izamara. I definitely recommend this hotel for anyone. Best bang for your buck.Ill be back in the future. Its right off of the highway.Great location.Breakfast was good and kept up for the amount of people </t>
   </si>
   <si>
+    <t>PanditAnil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r135261104-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -608,6 +677,9 @@
     <t>I have been staying here since the place was a Best Western years ago. The location is just off the 91 fwy and very convenient to go anywhere specially Disneyland using the carpool lane and bypassing the traffic. The internet connection is very fast and breakfast is good with do it yourself hot waffles, toast, cereals, boiled eggs, pastries, yogurt, Milk, juices, fruits and more!! The rooms are a bit run down but everything was working fine on all my visits. The front desk staff are very nice and helpful. For $65 to $75 you cant expect more. Last stay was July 2012. The parking is free and there is a Denny's restaurant in the same lot as the hotel so very convenient for late night dinners. Overall will go there again anytime!!More</t>
   </si>
   <si>
+    <t>Bingbongo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r129894698-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -629,6 +701,9 @@
     <t>We stayed at this hotel for 3 nights during April 27 - 30 as our travel agent booked us into this hotel through Expedia.  We were locked out of our own room on the last night of our stay and later found that we had to move out of the room due to the upcoming renovation for the whole wings.  I didn't understand why they put us in the room where they have planned to renovate.  Couldn't the renovation wait for a night more?  At least, they could let us know when we checked in instead of locking us out of our own room and forced us to move.On top of that, they told us at the same time that the electricity company would cut out the electricity on that last night for maintenance.  They could not do anything as they had also received the notification themselves.  Compensation would have to be forgotten as the agent booked us thru Expedia.  Flash lights did not find their way to our rooms as promised.  Should they still call themselved "Quality Inn" or should they change their name to "Bad Quailty Inn"?The rooms were run down and cleanliness was questionable.  The rooms was noisy too.  However, on the positive side, the bed was hard but good for my back.  Breakfast was pretty good especially the hot waffles.More</t>
   </si>
   <si>
+    <t>Travel_1198</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r122582925-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -647,6 +722,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>jdieringer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r122496417-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -665,6 +743,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>traveller35901</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r116058706-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -692,6 +773,9 @@
     <t>For the price the hotel was alright although it could use an updating. The only real complaint was the housekeeping. We constantly had to ask for coffee, cups, shampoo and soap.More</t>
   </si>
   <si>
+    <t>rrz518</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r101556814-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -713,6 +797,9 @@
     <t>They handled our group of unruly teenagers with care and professionalism.  (I would not have been so kind,  given the way our mob often behaves,  but I digress). I suppose our requests were pretty simple,  but we put this hotel to the test and they did great.  Nothing was too much trouble,  and the manager, Mr. Todd,  worked through our complicated billing with good humor and charm.The pool is fine,  but having that Dennys so closeby really helped out on our expenses.  Not to mention Moons Over My Hammy!!!The room was very clean, spacious,  and the hotels comp breakfast was more than adequate.  The hotel is a great value,  and very close to the So California attractions.More</t>
   </si>
   <si>
+    <t>uksignman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r92191217-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -726,6 +813,9 @@
   </si>
   <si>
     <t>Building work taking place on updating the hotel, some of the desk staff were helpful.  If you have a room facing the highway it will be very noisy.  Hotel does not change travellers cheques nor does it have change for washing machines.  You need to have had your breakfast by 9.00am as the staff clear away regardless that you have finished or not.</t>
+  </si>
+  <si>
+    <t>hawaiian717</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r85514431-Artesia_Inn_Suites-Artesia_California.html</t>
@@ -751,6 +841,9 @@
 Our room was located in the back building, which has interior corridors, on the second floor.  The main building (with exterior corridors) runs parallel to the freeway, and the back building is perpendicular, and our room was closer to the freeway.  Despite this, the freeway noise wasn't bad at all, even with the fan turned off (the fan was much louder than the freeway). When we did first enter the room, I noticed that the window was almost, but not quite closed; the freeway noise was noticeably reduced by closing it all the way.  Rather, it was our next door neighbors who woke us up around 2:30am when they started having some rather noisy fun.  The walls didn't do much to block noise (we could also hear doors in the hallway closing, they tended to slam shut rather loudly on their own), and this isn't totally unexpected in this price range.  We didn't have any issues with noise...We chose this hotel due to price and proximity to a wedding reception we were attending in Cerritos. We arrived after 9pm to check in and there were no other guests ahead of us waiting in the lobby. Check-in was efficient, but the clerk did have to check via her radio to verify that our room was ready before finishing our check-in. We had to ask the location of our room and the time breakfast was served; she didn't volunteer that information.Our room was located in the back building, which has interior corridors, on the second floor.  The main building (with exterior corridors) runs parallel to the freeway, and the back building is perpendicular, and our room was closer to the freeway.  Despite this, the freeway noise wasn't bad at all, even with the fan turned off (the fan was much louder than the freeway). When we did first enter the room, I noticed that the window was almost, but not quite closed; the freeway noise was noticeably reduced by closing it all the way.  Rather, it was our next door neighbors who woke us up around 2:30am when they started having some rather noisy fun.  The walls didn't do much to block noise (we could also hear doors in the hallway closing, they tended to slam shut rather loudly on their own), and this isn't totally unexpected in this price range.  We didn't have any issues with noise from outside the room on our second night.We didn't have the opportunity to sample the breakfast; even on weekends it ended at 9am and we chose to sleep in instead and went out to a restaurant. There is a Denny's in front of the motel for those who desire something close, though we didn't investigate and instead went elsewhere.The room itself was clean, and I didn't notice any significant issues. It felt like it was reasonably up to date. Shower pressure was adequate. The power supply to the room seemed questionable, with a few lights and the TV on, I noticed the lights flickering a couple of times.Check-out was efficient; as when we checked in there wasn't anyone else we had to wait for, and the clerk collected our keys, printed our receipt, and we were on our way.More</t>
   </si>
   <si>
+    <t>HenryRaposa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r10679645-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -770,6 +863,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>jlls</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r5363449-Artesia_Inn_Suites-Artesia_California.html</t>
@@ -1292,43 +1388,47 @@
       <c r="A2" t="n">
         <v>1992</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>151275</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1348,50 +1448,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1992</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>151276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -1411,50 +1515,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1992</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>151277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1470,50 +1578,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1992</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>151278</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1533,50 +1645,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1992</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>151279</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1590,50 +1706,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1992</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>151280</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1647,50 +1767,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1992</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>151281</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1704,50 +1828,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1992</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>4199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1761,50 +1889,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1992</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>151282</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1822,50 +1954,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>1992</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>151283</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -1885,50 +2021,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>1992</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>151284</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1942,41 +2082,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>1992</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>151285</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
@@ -1995,50 +2139,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1992</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>151286</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2058,50 +2206,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1992</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>151287</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -2125,50 +2277,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>1992</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>151288</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2192,50 +2348,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1992</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>151289</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2259,50 +2419,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>1992</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>151290</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2316,50 +2480,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1992</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>151291</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2383,35 +2551,39 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1992</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>44793</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s"/>
@@ -2419,10 +2591,10 @@
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -2443,51 +2615,52 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1992</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>4042</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -2511,50 +2684,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1992</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>3346</v>
+      </c>
+      <c r="C22" t="s">
+        <v>198</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="O22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2578,41 +2755,45 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>1992</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>151292</v>
+      </c>
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
@@ -2641,50 +2822,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>1992</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>151293</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2708,50 +2893,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>1992</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>151294</v>
+      </c>
+      <c r="C25" t="s">
+        <v>219</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -2775,50 +2964,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>1992</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>151295</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="J26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="O26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -2842,50 +3035,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>1992</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>90602</v>
+      </c>
+      <c r="C27" t="s">
+        <v>234</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="J27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -2899,50 +3096,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1992</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>151296</v>
+      </c>
+      <c r="C28" t="s">
+        <v>241</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -2960,56 +3161,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="X28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="Y28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>1992</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>151297</v>
+      </c>
+      <c r="C29" t="s">
+        <v>251</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="O29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3031,56 +3236,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="X29" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="Y29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1992</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>151298</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="J30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3104,50 +3313,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>1992</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>151299</v>
+      </c>
+      <c r="C31" t="s">
+        <v>265</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3171,50 +3384,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>1992</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>151300</v>
+      </c>
+      <c r="C32" t="s">
+        <v>273</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="J32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="O32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3238,41 +3455,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>1992</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>151301</v>
+      </c>
+      <c r="C33" t="s">
+        <v>281</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="J33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="K33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
@@ -3299,7 +3520,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_16.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_16.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,65 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>erikgutierrez69</t>
-  </si>
-  <si>
-    <t>06/27/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r590023727-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>29112</t>
+  </si>
+  <si>
+    <t>75845</t>
+  </si>
+  <si>
+    <t>590023727</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>DISGUSTING</t>
+  </si>
+  <si>
+    <t>Do not ever stay here, I promise you it was the worst experience I’ve ever had. 
+To start off we arrived at 5am to check in and the guy didn’t want to get up from the couch to help us check in. We get inside the room and it’s DISGUSTING. Mold, stains, and used sheets. We decided to deal with it after we slept IN THE CAR. I contacted Hotels.com asking for a refund and we had to wait for authorization from this hotel to get it but they were ignoring all phone calls and didn’t open the front doors to the front desk. We had plans and had to leave but kept in touch with Hotels.com. We were told to go back at 6pm to talk to the main manager and get our refund.. we arrive at 7:30pm and asked to speak to the manager that was supposed to be there and was told no manager until 1am, we explained how Hotels.com told us to come back at 6pm for her and she said that no one told her. So we contacted Hotels.com and watched as she ignored all 6 calls from them. When we confronted her she ignored us and asked the customers behind us to come so she could help them. Over the course of 2 hours we were yelled at, had Hotel.com associates yelled at and hung up on from this lady, and also 4 other...Do not ever stay here, I promise you it was the worst experience I’ve ever had. To start off we arrived at 5am to check in and the guy didn’t want to get up from the couch to help us check in. We get inside the room and it’s DISGUSTING. Mold, stains, and used sheets. We decided to deal with it after we slept IN THE CAR. I contacted Hotels.com asking for a refund and we had to wait for authorization from this hotel to get it but they were ignoring all phone calls and didn’t open the front doors to the front desk. We had plans and had to leave but kept in touch with Hotels.com. We were told to go back at 6pm to talk to the main manager and get our refund.. we arrive at 7:30pm and asked to speak to the manager that was supposed to be there and was told no manager until 1am, we explained how Hotels.com told us to come back at 6pm for her and she said that no one told her. So we contacted Hotels.com and watched as she ignored all 6 calls from them. When we confronted her she ignored us and asked the customers behind us to come so she could help them. Over the course of 2 hours we were yelled at, had Hotel.com associates yelled at and hung up on from this lady, and also 4 other families come back and complain about the same room. She told one customer to go kill himself just because he asked for a CLEANER room. All we wanted was a clean room, which is too hard to ask for?She also took a photo of me because I was “making” all her customers come back and complain... I didn’t know anyone and it’s not my fault all the rooms were dirty.. lolMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Do not ever stay here, I promise you it was the worst experience I’ve ever had. 
+To start off we arrived at 5am to check in and the guy didn’t want to get up from the couch to help us check in. We get inside the room and it’s DISGUSTING. Mold, stains, and used sheets. We decided to deal with it after we slept IN THE CAR. I contacted Hotels.com asking for a refund and we had to wait for authorization from this hotel to get it but they were ignoring all phone calls and didn’t open the front doors to the front desk. We had plans and had to leave but kept in touch with Hotels.com. We were told to go back at 6pm to talk to the main manager and get our refund.. we arrive at 7:30pm and asked to speak to the manager that was supposed to be there and was told no manager until 1am, we explained how Hotels.com told us to come back at 6pm for her and she said that no one told her. So we contacted Hotels.com and watched as she ignored all 6 calls from them. When we confronted her she ignored us and asked the customers behind us to come so she could help them. Over the course of 2 hours we were yelled at, had Hotel.com associates yelled at and hung up on from this lady, and also 4 other...Do not ever stay here, I promise you it was the worst experience I’ve ever had. To start off we arrived at 5am to check in and the guy didn’t want to get up from the couch to help us check in. We get inside the room and it’s DISGUSTING. Mold, stains, and used sheets. We decided to deal with it after we slept IN THE CAR. I contacted Hotels.com asking for a refund and we had to wait for authorization from this hotel to get it but they were ignoring all phone calls and didn’t open the front doors to the front desk. We had plans and had to leave but kept in touch with Hotels.com. We were told to go back at 6pm to talk to the main manager and get our refund.. we arrive at 7:30pm and asked to speak to the manager that was supposed to be there and was told no manager until 1am, we explained how Hotels.com told us to come back at 6pm for her and she said that no one told her. So we contacted Hotels.com and watched as she ignored all 6 calls from them. When we confronted her she ignored us and asked the customers behind us to come so she could help them. Over the course of 2 hours we were yelled at, had Hotel.com associates yelled at and hung up on from this lady, and also 4 other families come back and complain about the same room. She told one customer to go kill himself just because he asked for a CLEANER room. All we wanted was a clean room, which is too hard to ask for?She also took a photo of me because I was “making” all her customers come back and complain... I didn’t know anyone and it’s not my fault all the rooms were dirty.. lolMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r522409193-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>522409193</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Terrible hotel</t>
+  </si>
+  <si>
+    <t>The worst that I have ever experienced in the USA, including the attitude of the front desk and the quality of the room. The front desk staff behaved very inhospitable and indifferent. The room was not clean, has odd of mold, and noisy.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r519073469-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
-    <t>29112</t>
-  </si>
-  <si>
-    <t>75845</t>
-  </si>
-  <si>
     <t>519073469</t>
   </si>
   <si>
@@ -180,15 +224,9 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>to start off I was double charged for a room I had already booked online. mind you I book online with intent to arrive to a single king bed, when I arrived to hotel to check in they charged me again (without my consent) for a room with 2 queens &amp; stated they don't offer king beds. the next day when I realized the charge &amp; went to office to dispute they stated they couldn't do refund did have access to managers pw. so had to trust their manager would do it. she than refunded a lesser amount than what was charged due to a $5 check in fee which wasn't disclosed . room was filthy &amp; dirty .More</t>
   </si>
   <si>
-    <t>jmendez021980</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r503338857-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -213,9 +251,6 @@
     <t>This hotel has the most rude and closed minded people working. worst customer service. I had booked the hotel for one night. When i went inside the room I notice the remote was broken not working and they tried to charge me the remote. I had just checked in no more than 5 minutes. After that day I checked out. For some reason I had some other friends that had booked the next day there and I told them not to go to that hotel but they forced me to get one more night at that hotel since they had already booked. So i go and ask for another room for one night. The lady recognized me and gave me the same room. I go up there and the room was dirty. They had rented it to someone else after i checkout and never cleaned it since it had things that I never left on the room. I went to tell her she said you stayed there last night . That they were not going to clean it since it was my room and i stayed there which makes no sense. I had to get a refund to get out of there and on top of that they barely gave me a refund. My room had no microwave no fridge while my friends did have microwave and fridge but did not have iron and ironboard. Most rooms are garbageMore</t>
   </si>
   <si>
-    <t>IRENE C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r502344436-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -231,13 +266,49 @@
     <t>Service was terrible. Do not  waste your money! I booked a room online and already pay for it.  As I checked in, a staff said; " Sorry! We have plumbing problems and we ran out of rooms."  As I tried to get my money back, I saw a group of tourists checked in at front desk without the same issues. There were still  "ROOMS."</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Leonilda C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r483037692-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>483037692</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>Don't stay here.</t>
+  </si>
+  <si>
+    <t>It's on the lower end of the price scale and that's exactly what you get.  Our room was okay - the bathroom is very dated, water pressure in the shower was good and the carpets need replacing.  We're seniors and they stuck us on the second floor so we had to lug our bags up the stairs as there's no elevators.  As with older, dated motels, there are very few extra outlets to plug phone chargers and laptops or tablets into. 
+At various times, it sounded as if there was a large laundry operation next door as the sound of rushing water came right through the paper thin walls.  When anyone closed a door within three or four units of us, the walls shook and it echoed throughout.
+Shortly after we checked in, we tried to get on the Wi-fi to check e-mail, find a place to eat etc and it didn't work, either on the laptop or the phones.  My wife went down to the desk and the lady who checked us in said it was working earlier, which didn't help us now but she said she'd reset it and walked away.  We never did get internet that night.
+The next morning I tried again and got nothing so while at "breakfast" (see below), I asked the guy at the desk about it and he admitted they had problems but would get someone on it.  We went out for...It's on the lower end of the price scale and that's exactly what you get.  Our room was okay - the bathroom is very dated, water pressure in the shower was good and the carpets need replacing.  We're seniors and they stuck us on the second floor so we had to lug our bags up the stairs as there's no elevators.  As with older, dated motels, there are very few extra outlets to plug phone chargers and laptops or tablets into. At various times, it sounded as if there was a large laundry operation next door as the sound of rushing water came right through the paper thin walls.  When anyone closed a door within three or four units of us, the walls shook and it echoed throughout.Shortly after we checked in, we tried to get on the Wi-fi to check e-mail, find a place to eat etc and it didn't work, either on the laptop or the phones.  My wife went down to the desk and the lady who checked us in said it was working earlier, which didn't help us now but she said she'd reset it and walked away.  We never did get internet that night.The next morning I tried again and got nothing so while at "breakfast" (see below), I asked the guy at the desk about it and he admitted they had problems but would get someone on it.  We went out for the day and came back shortly after 4 pm.  No internet.  Off to talk to "customer service" at the desk and she said it was working yesterday.  "No it wasn't as my wife mentioned it to you."  No...we had people using it and I was using it."Look, we talked to you yesterday afternoon, it wasn't working then, it didn't work this morning and it's not working now."No it was working."So you're calling me a liar? Can you get someone to fix it?"I have to call someone."When will it be ready?"I have to call someone.  And she just walked away from me as I was in the middle of asking if she could please call us when it was up.Now onto the breakfast.  On the info page on Tripadvisor, they advertise "free breakfast" but it's not - they had the nerve to charge $1.00 for a "continental breakfast." The juice machine pumped clear water and when I went to the desk to ask I was told, "It's not working." So there's no juice? "No."  The coffee machine was broken but they had a carafe on the counter with a lukewarm brown beverage that might've been coffee in a previous life.  There were scrambled eggs, mashed potatoes and some form of sausage patty in serving trays sitting on a table with no warming device under them.  My wife tried a small bit of the eggs and they were cold.  She tried a hard-boiled egg and when she tried to peel the shell off, big chunks of egg came with it so she passed.They had a waffle iron and a few quarters of cold waffles on a plate nearby so I poured some waffle mix into the iron, waited till it dinged and it was stuck to the iron on both sides.  There was no large fork supplied to get the waffle out of the iron so I gave up trying to scrape anything out with the plastic cutlery.There was bread to make toast but no jam.  Overall, breakfast was a very poor show and not worth the dollar we paid for basically two slices of toast and awful coffee.  I also have to wonder about how many health department violations are breached by not keeping food such as eggs and sausage in warming trays. Not to mention cold eggs and sausage are just un-appetizing.In summary - don't stay here but if you absolutely are stuck for a place to just put your head down, don't bother spending a buck for the breakfast.  There's a Dennys right next door where they have whatever you want.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>It's on the lower end of the price scale and that's exactly what you get.  Our room was okay - the bathroom is very dated, water pressure in the shower was good and the carpets need replacing.  We're seniors and they stuck us on the second floor so we had to lug our bags up the stairs as there's no elevators.  As with older, dated motels, there are very few extra outlets to plug phone chargers and laptops or tablets into. 
+At various times, it sounded as if there was a large laundry operation next door as the sound of rushing water came right through the paper thin walls.  When anyone closed a door within three or four units of us, the walls shook and it echoed throughout.
+Shortly after we checked in, we tried to get on the Wi-fi to check e-mail, find a place to eat etc and it didn't work, either on the laptop or the phones.  My wife went down to the desk and the lady who checked us in said it was working earlier, which didn't help us now but she said she'd reset it and walked away.  We never did get internet that night.
+The next morning I tried again and got nothing so while at "breakfast" (see below), I asked the guy at the desk about it and he admitted they had problems but would get someone on it.  We went out for...It's on the lower end of the price scale and that's exactly what you get.  Our room was okay - the bathroom is very dated, water pressure in the shower was good and the carpets need replacing.  We're seniors and they stuck us on the second floor so we had to lug our bags up the stairs as there's no elevators.  As with older, dated motels, there are very few extra outlets to plug phone chargers and laptops or tablets into. At various times, it sounded as if there was a large laundry operation next door as the sound of rushing water came right through the paper thin walls.  When anyone closed a door within three or four units of us, the walls shook and it echoed throughout.Shortly after we checked in, we tried to get on the Wi-fi to check e-mail, find a place to eat etc and it didn't work, either on the laptop or the phones.  My wife went down to the desk and the lady who checked us in said it was working earlier, which didn't help us now but she said she'd reset it and walked away.  We never did get internet that night.The next morning I tried again and got nothing so while at "breakfast" (see below), I asked the guy at the desk about it and he admitted they had problems but would get someone on it.  We went out for the day and came back shortly after 4 pm.  No internet.  Off to talk to "customer service" at the desk and she said it was working yesterday.  "No it wasn't as my wife mentioned it to you."  No...we had people using it and I was using it."Look, we talked to you yesterday afternoon, it wasn't working then, it didn't work this morning and it's not working now."No it was working."So you're calling me a liar? Can you get someone to fix it?"I have to call someone."When will it be ready?"I have to call someone.  And she just walked away from me as I was in the middle of asking if she could please call us when it was up.Now onto the breakfast.  On the info page on Tripadvisor, they advertise "free breakfast" but it's not - they had the nerve to charge $1.00 for a "continental breakfast." The juice machine pumped clear water and when I went to the desk to ask I was told, "It's not working." So there's no juice? "No."  The coffee machine was broken but they had a carafe on the counter with a lukewarm brown beverage that might've been coffee in a previous life.  There were scrambled eggs, mashed potatoes and some form of sausage patty in serving trays sitting on a table with no warming device under them.  My wife tried a small bit of the eggs and they were cold.  She tried a hard-boiled egg and when she tried to peel the shell off, big chunks of egg came with it so she passed.They had a waffle iron and a few quarters of cold waffles on a plate nearby so I poured some waffle mix into the iron, waited till it dinged and it was stuck to the iron on both sides.  There was no large fork supplied to get the waffle out of the iron so I gave up trying to scrape anything out with the plastic cutlery.There was bread to make toast but no jam.  Overall, breakfast was a very poor show and not worth the dollar we paid for basically two slices of toast and awful coffee.  I also have to wonder about how many health department violations are breached by not keeping food such as eggs and sausage in warming trays. Not to mention cold eggs and sausage are just un-appetizing.In summary - don't stay here but if you absolutely are stuck for a place to just put your head down, don't bother spending a buck for the breakfast.  There's a Dennys right next door where they have whatever you want.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r454062024-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>454062024</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> great customer śervicex clean and quiet hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I review it a 5. it is a clean hotel, comfortable beds, spacious n family oriented. great place for vacation... great price for the great place!!        you'll enjoy your stay &amp; summer time you have a great big huge pool to enjoy yourself in the sun with family and friends. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r435485220-Artesia_Inn_Suites-Artesia_California.html</t>
@@ -261,9 +332,6 @@
     <t>The worst hotel ever,  service was terrible, people at fromt desk very ruth, holes in room ceiling, towel rack falling from wall, tiolet paper holder broken, roaches in the rooms, flying little insects in beds, ripped window sheers, duty towels in tubs, buttons missing on phones, some rooms missing towels, rooms with families of 4 or 5 only 2 towels and to wash cloths and when called the front desk for extra towels were told to come and get them and hang up on the person on the phone, only one card to open door so if one person went out the other couldn't get in and when asked for a second card they got angry, treated the person bad, that they couldn't be giving out cards and when finaly they give the card the other person couldn't get in because they changed the code so there was another argument at 1 a.m. Breakfast was a brown lunch bag with a cup noddle soup, boiled egg, a banana and 2 slices a bread (no toaster) Jelly was on a large jar with a spoon in it, all messy from people spill over the border of the jar into the tablecloth, some butter, some cereal with the gallons of milk on the table, coffee, only decaf.  just warm, and when you came in you had to show you room card and this lady that looked like they picked her up from...The worst hotel ever,  service was terrible, people at fromt desk very ruth, holes in room ceiling, towel rack falling from wall, tiolet paper holder broken, roaches in the rooms, flying little insects in beds, ripped window sheers, duty towels in tubs, buttons missing on phones, some rooms missing towels, rooms with families of 4 or 5 only 2 towels and to wash cloths and when called the front desk for extra towels were told to come and get them and hang up on the person on the phone, only one card to open door so if one person went out the other couldn't get in and when asked for a second card they got angry, treated the person bad, that they couldn't be giving out cards and when finaly they give the card the other person couldn't get in because they changed the code so there was another argument at 1 a.m. Breakfast was a brown lunch bag with a cup noddle soup, boiled egg, a banana and 2 slices a bread (no toaster) Jelly was on a large jar with a spoon in it, all messy from people spill over the border of the jar into the tablecloth, some butter, some cereal with the gallons of milk on the table, coffee, only decaf.  just warm, and when you came in you had to show you room card and this lady that looked like they picked her up from the street would write the room nunber down and how many bags you were taking.  Just ridiculous and very ruth management.  These people don't know what they are doing.  Will not recomend this hotel to no one.More</t>
   </si>
   <si>
-    <t>jimmy19891989</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r351957834-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -282,9 +350,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Rysgama2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r337734356-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -303,7 +368,46 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>Cyndy G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r299726616-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>299726616</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Not more than a two star hotel!!!</t>
+  </si>
+  <si>
+    <t>Bugs in hallway light fixtures. Elevator light floor buttons burned out.  Cracked plastic ceiling tile in elevator. Hotel location noisy ... busy Hwy 91 right in front of hotel.Hallways dirty with trash laying around. End of hallway near end of elevator apparently smokers corner as a pile of cigarette butts in corner. Garbage cans piled high with trash.Surprising bed comfortable. Rooms ok nothing to rave about.  We had two rooms both rooms had odor to them. Good thing only staying one night. We had two queen bed rooms and rooms only had linens for one person had to ask for more which they brought to us. Carpet in room was dirty.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Bugs in hallway light fixtures. Elevator light floor buttons burned out.  Cracked plastic ceiling tile in elevator. Hotel location noisy ... busy Hwy 91 right in front of hotel.Hallways dirty with trash laying around. End of hallway near end of elevator apparently smokers corner as a pile of cigarette butts in corner. Garbage cans piled high with trash.Surprising bed comfortable. Rooms ok nothing to rave about.  We had two rooms both rooms had odor to them. Good thing only staying one night. We had two queen bed rooms and rooms only had linens for one person had to ask for more which they brought to us. Carpet in room was dirty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r293615708-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>293615708</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>No Breakfast other than that just like other quality inns.</t>
+  </si>
+  <si>
+    <t>Used to stay here a lot but lately the quality of rooms has gone down. The hotel no longer offers breakfast (which I thought was a standard in all quality inns) and my room had no fridge no microwave. Place looks run down. Had to wait for checkin as rooms were not ready.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r290589960-Artesia_Inn_Suites-Artesia_California.html</t>
@@ -321,15 +425,9 @@
     <t>1. This hotel advertises full breakfast, but truth is, there is NO BREAKFAST AT ALL, no toast... NOTHING!2. We checked into our (2) rooms around 7pm. NEITHER ROOM HAD TOWELS- --Zero!! They were being washed and we had to wait on.them.3. One of the rooms (a 2 queens room)had a toilet seat that was peeling apart.4. The same room had a towel rack fall off the wall, on one, when we put 2 shirts and a small bag on it.5.This same room had clearly not had the sheets changed from before because one bed a hair inside the sheets and the other bed , there was BLOOD ON.THE BED!!!BEWARE OF THIS PLACE! Yuck! I would NEVER come here again!MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>1. This hotel advertises full breakfast, but truth is, there is NO BREAKFAST AT ALL, no toast... NOTHING!2. We checked into our (2) rooms around 7pm. NEITHER ROOM HAD TOWELS- --Zero!! They were being washed and we had to wait on.them.3. One of the rooms (a 2 queens room)had a toilet seat that was peeling apart.4. The same room had a towel rack fall off the wall, on one, when we put 2 shirts and a small bag on it.5.This same room had clearly not had the sheets changed from before because one bed a hair inside the sheets and the other bed , there was BLOOD ON.THE BED!!!BEWARE OF THIS PLACE! Yuck! I would NEVER come here again!More</t>
   </si>
   <si>
-    <t>Sam G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r278726425-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -348,9 +446,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>Peppertaz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r274885492-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -372,7 +467,40 @@
     <t>This hotel is older and some rooms need maintenance, there were a few things that were broken in my room, a tile in the tub and striker plate on bathroom door was missing. I also had two ciggarette holes in my sheets! One of the main factors that helps me choose a location is if they provide hot breakfast which the website said this location did, but when we checked in we were informed they no longer did and they only provided a 10% discount at the Denny's next door if you showed your room key. I couldnt cancel or change reservation after that so that was a huge disappointment since I don't like Denny's and didn't want to take that much time for breakfast.More</t>
   </si>
   <si>
-    <t>WindTraveler101</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r273566054-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>273566054</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Quality Roach Inn.</t>
+  </si>
+  <si>
+    <t>I come at 3pm and my room is not ready. Waited an hour for them to clean my room.The room is small, has stains all over the carpet and furniture...once I found roaches in the room which apprently had just been cleaned I demanded a new room. Even better the new room has bugs too but it's memorial day weekend so everybody is sold out and I have nowhere else to go.By the way an hour later someone else was in the room I just left, makes me wonder if they even cleaned it.They upgraded me to a suite but it wasn't much better all run down. Mini fridge was so tiny and the shelf was broken. Needed a 2nd tv in the bedroom part rather than nothing. Atleast the suites have more outlets because if you book a regular room it has none. Sofa was old and hard. There was no coffee table or desk just a small table so there was limited space to do stuff.Only nice thing was I got a free breakfast from dennys because I'm a platinum member. I gave two stars because they have a jacuzzi but that's about it.This hotel needs a huge remodel and updating. Won't ever stay here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I come at 3pm and my room is not ready. Waited an hour for them to clean my room.The room is small, has stains all over the carpet and furniture...once I found roaches in the room which apprently had just been cleaned I demanded a new room. Even better the new room has bugs too but it's memorial day weekend so everybody is sold out and I have nowhere else to go.By the way an hour later someone else was in the room I just left, makes me wonder if they even cleaned it.They upgraded me to a suite but it wasn't much better all run down. Mini fridge was so tiny and the shelf was broken. Needed a 2nd tv in the bedroom part rather than nothing. Atleast the suites have more outlets because if you book a regular room it has none. Sofa was old and hard. There was no coffee table or desk just a small table so there was limited space to do stuff.Only nice thing was I got a free breakfast from dennys because I'm a platinum member. I gave two stars because they have a jacuzzi but that's about it.This hotel needs a huge remodel and updating. Won't ever stay here again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r262774263-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>262774263</t>
+  </si>
+  <si>
+    <t>03/30/2015</t>
+  </si>
+  <si>
+    <t>old, avoid it</t>
+  </si>
+  <si>
+    <t>Very old, out dated place to stay. Toilet faucet  was leaking.   Dirty place.  Old rooms.  Breakfast was OK.  While choosing the room, choose the side away from the freeway I-5 otherwise it will be too noisy</t>
+  </si>
+  <si>
+    <t>March 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r261702153-Artesia_Inn_Suites-Artesia_California.html</t>
@@ -391,16 +519,10 @@
 What turned me off the most was when I went down for breakfast in the morning. I went to the breakfast room about 20 minutes before it was supposed to close, and a lot of food was gone. The room was a total mess, too, with people's plates, cups, napkins, and leftover food on a lot of the tables. I understand that maybe the hotel was short staffed (I don't expect everything to be perfect), but when I went to the front desk to ask if they had anymore jelly, a lady told me she would check. I finished my breakfast without hearing anything from the lady, and when I went to check out she just looked at me and said "I am sorry, but we don't have anymore." I told her...I thought it would be a good stay after the person checking me in was so friendly, and the housekeepers were helpful in getting me extra towels, but I was disappointed with my overall visit. I needed extra towels because there were only two of each in the room. The towels were nicer than you usually find at a Quality Inn though. There was no clock in the room, and a fridge will cost you an extra $15.The building needs a lot of work, and the toilet kept running on and off throughout the day/night. The bed was comfortable enough, but the pillows were lumpy and not comfortable. What turned me off the most was when I went down for breakfast in the morning. I went to the breakfast room about 20 minutes before it was supposed to close, and a lot of food was gone. The room was a total mess, too, with people's plates, cups, napkins, and leftover food on a lot of the tables. I understand that maybe the hotel was short staffed (I don't expect everything to be perfect), but when I went to the front desk to ask if they had anymore jelly, a lady told me she would check. I finished my breakfast without hearing anything from the lady, and when I went to check out she just looked at me and said "I am sorry, but we don't have anymore." I told her along with the other two people working at the front desk (3 people) that they might want to check out the breakfast room because it was very dirty and they were short a lot of food, and it was abundantly clear by there uncaring response that they didn't care. The least they could have done (at least one of them) was to make it seemed like they cared. They weren't acting like owners. It came across to me that it wasn't their problem. It is too bad, even a little acknowledgement from one of them like they cared would have left me with a different impression.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>I thought it would be a good stay after the person checking me in was so friendly, and the housekeepers were helpful in getting me extra towels, but I was disappointed with my overall visit. I needed extra towels because there were only two of each in the room. The towels were nicer than you usually find at a Quality Inn though. There was no clock in the room, and a fridge will cost you an extra $15.The building needs a lot of work, and the toilet kept running on and off throughout the day/night. The bed was comfortable enough, but the pillows were lumpy and not comfortable. 
 What turned me off the most was when I went down for breakfast in the morning. I went to the breakfast room about 20 minutes before it was supposed to close, and a lot of food was gone. The room was a total mess, too, with people's plates, cups, napkins, and leftover food on a lot of the tables. I understand that maybe the hotel was short staffed (I don't expect everything to be perfect), but when I went to the front desk to ask if they had anymore jelly, a lady told me she would check. I finished my breakfast without hearing anything from the lady, and when I went to check out she just looked at me and said "I am sorry, but we don't have anymore." I told her...I thought it would be a good stay after the person checking me in was so friendly, and the housekeepers were helpful in getting me extra towels, but I was disappointed with my overall visit. I needed extra towels because there were only two of each in the room. The towels were nicer than you usually find at a Quality Inn though. There was no clock in the room, and a fridge will cost you an extra $15.The building needs a lot of work, and the toilet kept running on and off throughout the day/night. The bed was comfortable enough, but the pillows were lumpy and not comfortable. What turned me off the most was when I went down for breakfast in the morning. I went to the breakfast room about 20 minutes before it was supposed to close, and a lot of food was gone. The room was a total mess, too, with people's plates, cups, napkins, and leftover food on a lot of the tables. I understand that maybe the hotel was short staffed (I don't expect everything to be perfect), but when I went to the front desk to ask if they had anymore jelly, a lady told me she would check. I finished my breakfast without hearing anything from the lady, and when I went to check out she just looked at me and said "I am sorry, but we don't have anymore." I told her along with the other two people working at the front desk (3 people) that they might want to check out the breakfast room because it was very dirty and they were short a lot of food, and it was abundantly clear by there uncaring response that they didn't care. The least they could have done (at least one of them) was to make it seemed like they cared. They weren't acting like owners. It came across to me that it wasn't their problem. It is too bad, even a little acknowledgement from one of them like they cared would have left me with a different impression.More</t>
   </si>
   <si>
-    <t>Erlinda M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r258329209-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -419,9 +541,6 @@
     <t>First let me start off by saying that if you are looking for quiet, decent and bug free room this is not the place.  The noise was ridiculously loud when trying to sleep any where from children yelling and running around to people drinking in pool area after pool was supposed to be closed.  Water bugs crawling around in our room plus problems with hotel checking in after the stay was completely paid up front and checking if room was ready told by supervisor that it was there but to come after 9 am to check to not being allowed to check by PM staff for some ridiculous reason.  I have never had such a terrible experience as I have had here...highly recommend to search elsewhere because Supervisor here was a joke....I asked her for the name of worker that gave me a hard time checking in so I could report him to corporate..she gave me some lame excuse she didn't know who it was when she just had to look in her computer system to see the person that logged in to use the register and system as if i am some computer illiterate person....best believe I will be calling corporate because they are only open Monday - Friday....how convenient for them!More</t>
   </si>
   <si>
-    <t>Sam987</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r246233388-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -437,7 +556,37 @@
     <t>The service and cleaning needs improvement. No hot water in our room. Front desk does not care. 1 person trying to take care 100 people came out of tour bus. Room smells so bad. Not sure why choice hotels keep this kind of hotel in the chain.Go some where else.</t>
   </si>
   <si>
-    <t>ranjeeta b</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r237093397-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>237093397</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>A low quality inn</t>
+  </si>
+  <si>
+    <t>I booked this hotel because of the hot tub and of course when I get there it's broken.The rooms and bedding need updating.There is a $100 deposit that is only made aware to you at check in.The free breakfast sucks..flavorless waffles and microwaved eggs and sausage...their pasteries come from the dollar store.Atleast the guest laundry room was decent.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r220581373-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>220581373</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't recommend this hotel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First of all, I definitely don't recommend this hotel. I've never had so many issues when staying at a hotel not even at a ratty motel. They don't even provide enough breakfast for all the guests. Their juice tastes watered down and nasty. The telephone and hair dryer didn't work. The shower sprayed water everywhere. The wifi was slow. And the worst part of all is that they double charge for rooms. When you pay through a third party such as expedia or Priceline the hotel charges again for the room and they won't take responsibility for it and just blame others. Definitely don't stay there. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r218417038-Artesia_Inn_Suites-Artesia_California.html</t>
@@ -461,9 +610,6 @@
     <t>well firstly I would like to say about the location. friends it was far from the main city, and Artesia can be considered outskirts of LA. I traveled from Vegas to LA via bus, and from the bus station it took me 3 local buses and 2 metro lines and then on foot to reach the place. They also have a tie up with a local taxi vendor, but i suggest call yellow cab for transportation as the connectivity is very poor. The nearest metro station is Norwalk (5 miles) from the place; and there is just 1 public bus connecting the area no.62. They offer free Wi-Fi and breakfast but while the internet connection is great, the breakfast serve is awful and boring. The staff however were friendly and helpful. Will not come here again for sure.More</t>
   </si>
   <si>
-    <t>baddy11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r207590204-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -485,9 +631,6 @@
     <t>I have stayed at this hotel many times and the most recent experience over Memorial Day weekend did for me.  I will probably never consider this hotel for my next stay - unless it gets renovated and does a better job of making sure all guests get breakfast and the staff get trained on how to interact with guests in a pleasant manner...Pros: 1. Nice location          2. Safe neighborhood and night patrols (saw a security patrol car in the parking lot)Cons:          1.  Doors are a challenge to open.          2.  Green pool.          3.  Room - Smelly and loud.          4.  Bus tour groups with people from third world countries who lacked basic etiquette and carried away trays of Muffins back to the rooms (when the staff went inside to get some thing else for another guest).           5.  At 8:30 in the morning when the wife asked them for some fruit, the staff said today's quota reached (again, people taking tons of fruit outside of the breakfast area).          6.  At the time of checkout, the front office clerk did not even ask us if our stay was good and did not even print out the receipt.  (Almost always, the person at the check out counter would thank us for staying at their hotel and invite us back to stay with them.More</t>
   </si>
   <si>
-    <t>EliasRobles</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r200348427-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -506,7 +649,52 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>lisheng2013</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r195599684-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>195599684</t>
+  </si>
+  <si>
+    <t>02/27/2014</t>
+  </si>
+  <si>
+    <t>Nice people, but an old place that needs renovation</t>
+  </si>
+  <si>
+    <t>My stay got off to a bad start when the card system would not open my room door. The bath faucet ran continuously and so did the toilet. The air conditioner was old and noisy and there were no easily accessible electrical outlets in the room, nor a comfortable chair for sitting. From the tiny bathroom size I would guess this is an old Holiday Inn---my room was clean and the bed comfortable, but I wish I'd spent more money for a nicer place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>KEITH D, consultant at Artesia Inn &amp; Suites, responded to this reviewResponded February 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2014</t>
+  </si>
+  <si>
+    <t>My stay got off to a bad start when the card system would not open my room door. The bath faucet ran continuously and so did the toilet. The air conditioner was old and noisy and there were no easily accessible electrical outlets in the room, nor a comfortable chair for sitting. From the tiny bathroom size I would guess this is an old Holiday Inn---my room was clean and the bed comfortable, but I wish I'd spent more money for a nicer place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r194552812-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>194552812</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>Great customer service but the rooms stink</t>
+  </si>
+  <si>
+    <t>The rooms we got were stinking.The ceilings were wet. We had to return back to the front desk and ask for a different room. The staff was prompt in giving us better rooms.This place is a mile away from Indian restaurants, and also right outside the highway.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r188616532-Artesia_Inn_Suites-Artesia_California.html</t>
@@ -524,15 +712,6 @@
     <t>i saw the excellent update in this hotel, more clean, nice service in the front desk, feel warm.much better than six months ago when i been here. great. I asked front desk, knew they changed the ownership. wish them to keep it.</t>
   </si>
   <si>
-    <t>December 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>KEYYTRIGER</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r169810714-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -554,9 +733,6 @@
     <t>Doors don't close properly, u have to push or slam them to lock.  God awful smell of smoke and mildue mixture. Right next to a highway exit great easy on off location. Internet doesn't work. 3 different front desk staff with 3 different excuses!!!! If u are going to lie get your stories straight. I am a choice hotel property owner in Texas and New Mexico. I would be ashamed if my rooms were this bad. Breakfast was a joke, ran out of orange juice a hour before breakfast ran out 2 days in a row!!!!! Second day waffle machine(which there is 1 for a hotel of close to 150 units!!!!) stopped cooking waffles on 1 side. I am glad the coffee machine wasn't broken at this hotel. Pool on the other hand was very clean and very big. Hot tub outside was bigger then I've ever seen. I guess I know why there is a Denny's in the parking lot!!!!!!!!  For less then the average price of this hotel very good hotels near by. More</t>
   </si>
   <si>
-    <t>WorldGlutton</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r169294434-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -575,7 +751,43 @@
     <t>Upon checking on the website ,  i booked 4 nights stay in  this hotel with Orbitz as it is near my relative's place.  Requested for a handicap room upon check in, was given a room  on 3rd floor. There was no signages at all to show where is the lift to our room. But certainly many wall signages with "Warning, Security Cameras in Use". The room key doesnt work, had to change it at the front desk. Totally disappointed to find there is not wall plug for our laptop connection. Called the front desk, the maintenance guy came but didnt seem so happy to help. he gave us a big chunk of extenion wires , told us to push the television cabinet out to plug it in. At this moment, we insisted on a room change. They changed our room to the far end of the holel buildling. The elevator near this room is out of order . We had to walk a distance down to the lobby for our breakfast &amp; out of the hotel . It is totally annoying when our room keys did not work for the next few times when we come back. I noticed many guests had the same problem like us, they were waiting outside their room , trying out their keys. When i tried to cut short our stay, the front desk staff replied that its not allowed as we paid our bills...Upon checking on the website ,  i booked 4 nights stay in  this hotel with Orbitz as it is near my relative's place.  Requested for a handicap room upon check in, was given a room  on 3rd floor. There was no signages at all to show where is the lift to our room. But certainly many wall signages with "Warning, Security Cameras in Use". The room key doesnt work, had to change it at the front desk. Totally disappointed to find there is not wall plug for our laptop connection. Called the front desk, the maintenance guy came but didnt seem so happy to help. he gave us a big chunk of extenion wires , told us to push the television cabinet out to plug it in. At this moment, we insisted on a room change. They changed our room to the far end of the holel buildling. The elevator near this room is out of order . We had to walk a distance down to the lobby for our breakfast &amp; out of the hotel . It is totally annoying when our room keys did not work for the next few times when we come back. I noticed many guests had the same problem like us, they were waiting outside their room , trying out their keys. When i tried to cut short our stay, the front desk staff replied that its not allowed as we paid our bills through a 3rd party.!!!There was no coffee replenishment in the room, upon request, the service staff replies there is no stock !!! They closed the Breakfast room but put us into a Meeting Room for our breakfast,The reason being there were groups in-house, I was very disgusted to notice that bedsheet is being used as tablecloth, guess they can't cope with a full house breakfast situation !!   In the breakfast room, the service staff seemed more concerned in cleaning up the place then to assist guests who are not at all familiar with the waffle making maching.!!!! Our key could not open the Laundry room, the staff just forced open the window sill, climbed in to open the door for us !!! It seemed to me this is a malfunction hotel. I would never never recommend this hotel to any of my friends or clients !!!!More</t>
   </si>
   <si>
-    <t>Crystal N</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r167423921-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>167423921</t>
+  </si>
+  <si>
+    <t>07/13/2013</t>
+  </si>
+  <si>
+    <t>Worst property ever!!</t>
+  </si>
+  <si>
+    <t>let me start by saying that I work for the choice hotels so i have been to many properties we liked this hotels because of the pictures on the website but it looks nothing like that. The hotels is behind a dennys that is hard to find if its just first time in california the lobby is completely empty but a couple of couches nothing like the pictures i do have to say that guy that checked us in was good. After we got to our room we were shocked at how horrible it was there was such a horrible odor i am not sure if they are trying to cover a previous smoking incident or what. The door to one of the rooms didnt even close you had to like smash your body on it in order to close. The beds and bathroom was the worst i didnt want my kids to even touch anything because of how gross it looked we had our reservation for 7 nights but 5 minutes was more than enough. i would not recomend this hotel if you want to enjoy your vacation and actually have some sleep try the ayres inn in ontario californiaMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>let me start by saying that I work for the choice hotels so i have been to many properties we liked this hotels because of the pictures on the website but it looks nothing like that. The hotels is behind a dennys that is hard to find if its just first time in california the lobby is completely empty but a couple of couches nothing like the pictures i do have to say that guy that checked us in was good. After we got to our room we were shocked at how horrible it was there was such a horrible odor i am not sure if they are trying to cover a previous smoking incident or what. The door to one of the rooms didnt even close you had to like smash your body on it in order to close. The beds and bathroom was the worst i didnt want my kids to even touch anything because of how gross it looked we had our reservation for 7 nights but 5 minutes was more than enough. i would not recomend this hotel if you want to enjoy your vacation and actually have some sleep try the ayres inn in ontario californiaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r163517607-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>163517607</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>Great Customer Service but not so great rooms</t>
+  </si>
+  <si>
+    <t>My family and I, there were 5 of us, stayed here one night and that was more than enough. We were were supposed to have a king suite with a sofa bed and a roll away. To begin with it took 5 or 6 card keys to get us into the room. When they finally get us into the room it smells of cigarette smoke, supposed to be non-smoking. The very helpful lady from houskeeping then informs me that the sofa that is in the room is not a sofabed because the guests that last stayed in the room 2 weeks ago broke it. How are we supposed to fit 5 people into this room? Long story short they finally get us into two connecting rooms and what do I find? The socket where the bulb sits to the bedside lamp is held together with electrical tape! I could not belive it. How unsafe is that? Not only was there the electrical tape in the lamp but there were broken tiles in the bathroom and the caulking around the sink was completely coming apart.  Conclusion staff is great and tried to be as helpful as possible bit the roo.s themselves are not that great.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I, there were 5 of us, stayed here one night and that was more than enough. We were were supposed to have a king suite with a sofa bed and a roll away. To begin with it took 5 or 6 card keys to get us into the room. When they finally get us into the room it smells of cigarette smoke, supposed to be non-smoking. The very helpful lady from houskeeping then informs me that the sofa that is in the room is not a sofabed because the guests that last stayed in the room 2 weeks ago broke it. How are we supposed to fit 5 people into this room? Long story short they finally get us into two connecting rooms and what do I find? The socket where the bulb sits to the bedside lamp is held together with electrical tape! I could not belive it. How unsafe is that? Not only was there the electrical tape in the lamp but there were broken tiles in the bathroom and the caulking around the sink was completely coming apart.  Conclusion staff is great and tried to be as helpful as possible bit the roo.s themselves are not that great.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r154310996-Artesia_Inn_Suites-Artesia_California.html</t>
@@ -590,9 +802,6 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>Cindy C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r150964093-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -614,9 +823,6 @@
     <t>we got this hotel using our reward point, on the website it shows all the amenities we will get, such as working desk, refrige, but when I get to the room there's no refrige, I asked the front desk they said refrige isn't available for reward point night, it would be nice if they or Choice hotel.com can fix this, because this is misleading to the customer.  When I'm getting ready to sleep I found some "dirty spot" on the blanket, so I asked for another one and they said they don't have any because all the rooms are booked (I know it's not true because I checked their website room availability and I still see a bunch), I called again and tell them I can't sleep with dirty blanket and finally they delivered one to me.  Breakfast isn't so good at all, but I think this happens to all the hotel...I give them 2 star for being super polite and friendly, but the hotel itself isn't great at all.More</t>
   </si>
   <si>
-    <t>John H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r146854154-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -635,7 +841,43 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>tv1997</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r143565675-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>143565675</t>
+  </si>
+  <si>
+    <t>10/23/2012</t>
+  </si>
+  <si>
+    <t>Not a "QUALITY" Inn</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights and it was an all around bad experience.. First night we had two guys enter our room while we were sleeping, using a key that the desk clerk ahd given them.  When we confronted the front desk all she could ask is, "what room are you stayiing in?" Staff was not acommodating at all.  Area our room was located reeked of marijuana. Shower didn't work properly.  Bug on my daughters bed [looked like a flea] The Inn has a "gentlemans" club located next door.  And early in the morning we observed what appeared to be "ladies of the evening" exiting the inn.  Definitley not a family friendly enviroment. Would not recommend or stay at this Inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights and it was an all around bad experience.. First night we had two guys enter our room while we were sleeping, using a key that the desk clerk ahd given them.  When we confronted the front desk all she could ask is, "what room are you stayiing in?" Staff was not acommodating at all.  Area our room was located reeked of marijuana. Shower didn't work properly.  Bug on my daughters bed [looked like a flea] The Inn has a "gentlemans" club located next door.  And early in the morning we observed what appeared to be "ladies of the evening" exiting the inn.  Definitley not a family friendly enviroment. Would not recommend or stay at this Inn again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r136183973-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>136183973</t>
+  </si>
+  <si>
+    <t>08/03/2012</t>
+  </si>
+  <si>
+    <t>"Not Bad'</t>
+  </si>
+  <si>
+    <t>We had stayed here for 2 nights. It was alright but bathroom drain was working properly. Not enough space in Breakfast room to seat. Room was clean. beds were comfy. Elevator wasn't clean so We didn't use that. Girl who check us in was nice &amp; friendly.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r135439683-Artesia_Inn_Suites-Artesia_California.html</t>
@@ -653,9 +895,6 @@
     <t xml:space="preserve">Clean rooms,comfy beds and great service from Izamara. I definitely recommend this hotel for anyone. Best bang for your buck.Ill be back in the future. Its right off of the highway.Great location.Breakfast was good and kept up for the amount of people </t>
   </si>
   <si>
-    <t>PanditAnil</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r135261104-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -671,15 +910,9 @@
     <t>I have been staying here since the place was a Best Western years ago. The location is just off the 91 fwy and very convenient to go anywhere specially Disneyland using the carpool lane and bypassing the traffic. The internet connection is very fast and breakfast is good with do it yourself hot waffles, toast, cereals, boiled eggs, pastries, yogurt, Milk, juices, fruits and more!! The rooms are a bit run down but everything was working fine on all my visits. The front desk staff are very nice and helpful. For $65 to $75 you cant expect more. Last stay was July 2012. The parking is free and there is a Denny's restaurant in the same lot as the hotel so very convenient for late night dinners. Overall will go there again anytime!!MoreShow less</t>
   </si>
   <si>
-    <t>July 2012</t>
-  </si>
-  <si>
     <t>I have been staying here since the place was a Best Western years ago. The location is just off the 91 fwy and very convenient to go anywhere specially Disneyland using the carpool lane and bypassing the traffic. The internet connection is very fast and breakfast is good with do it yourself hot waffles, toast, cereals, boiled eggs, pastries, yogurt, Milk, juices, fruits and more!! The rooms are a bit run down but everything was working fine on all my visits. The front desk staff are very nice and helpful. For $65 to $75 you cant expect more. Last stay was July 2012. The parking is free and there is a Denny's restaurant in the same lot as the hotel so very convenient for late night dinners. Overall will go there again anytime!!More</t>
   </si>
   <si>
-    <t>Bingbongo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r129894698-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -701,7 +934,40 @@
     <t>We stayed at this hotel for 3 nights during April 27 - 30 as our travel agent booked us into this hotel through Expedia.  We were locked out of our own room on the last night of our stay and later found that we had to move out of the room due to the upcoming renovation for the whole wings.  I didn't understand why they put us in the room where they have planned to renovate.  Couldn't the renovation wait for a night more?  At least, they could let us know when we checked in instead of locking us out of our own room and forced us to move.On top of that, they told us at the same time that the electricity company would cut out the electricity on that last night for maintenance.  They could not do anything as they had also received the notification themselves.  Compensation would have to be forgotten as the agent booked us thru Expedia.  Flash lights did not find their way to our rooms as promised.  Should they still call themselved "Quality Inn" or should they change their name to "Bad Quailty Inn"?The rooms were run down and cleanliness was questionable.  The rooms was noisy too.  However, on the positive side, the bed was hard but good for my back.  Breakfast was pretty good especially the hot waffles.More</t>
   </si>
   <si>
-    <t>Travel_1198</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r127922755-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>127922755</t>
+  </si>
+  <si>
+    <t>04/15/2012</t>
+  </si>
+  <si>
+    <t>Quality?</t>
+  </si>
+  <si>
+    <t>For $65 a night, my expectations were low. But I've stayed in motels for $30 a night that were nicer. 1.) Our room received no service, not even after I called and requested it.2.) We brought up dirty towels to the front desk and they left them there while checking in other guests. Seriously?3.) Our room cleanliness was seriously questionable. - I was a hotel maid in college, so I feel qualified to judge that aspect. 4.) I brought in a prop pillow to sleep on the second night because the first night the nasty shredded little pillows gave my neck a crick.5.) We couldn't get the wireless to work with my ipad. But it worked very fast for my laptop, once we found the right network.I would stay here again if I absolutely had to and money was seriously tight. This was a business trip, so I wasn't concerned with luxury. On the bright side, the hot breakfast was pretty good. A little weird, but pretty tasty.MoreShow less</t>
+  </si>
+  <si>
+    <t>For $65 a night, my expectations were low. But I've stayed in motels for $30 a night that were nicer. 1.) Our room received no service, not even after I called and requested it.2.) We brought up dirty towels to the front desk and they left them there while checking in other guests. Seriously?3.) Our room cleanliness was seriously questionable. - I was a hotel maid in college, so I feel qualified to judge that aspect. 4.) I brought in a prop pillow to sleep on the second night because the first night the nasty shredded little pillows gave my neck a crick.5.) We couldn't get the wireless to work with my ipad. But it worked very fast for my laptop, once we found the right network.I would stay here again if I absolutely had to and money was seriously tight. This was a business trip, so I wasn't concerned with luxury. On the bright side, the hot breakfast was pretty good. A little weird, but pretty tasty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r127443974-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>127443974</t>
+  </si>
+  <si>
+    <t>04/07/2012</t>
+  </si>
+  <si>
+    <t>NOT a GOOD Neighborhood!!</t>
+  </si>
+  <si>
+    <t>We booked through Expedia after reading some of the reviews. First off, this is NOT a good neighborhood for families!! Everything around the hotel is VERY RUNDOWN. The first room they gave us, NONE of the lights worked and the door would not shut all the way unless you pushed all your body weight against it! The beds were ok, the room size ok, but the TV DID NOT WORK! Well it would work for a minute and then the sound would go out!  HOWEVER the people at the front desk are SO NICE! They changed our room when we told them about the lights. They were very apologetic about it. Check in was quick and easy and breakfast was ok. Freeway entrance is good. It is right off the freeway. But all in all I will not go back here because of the neighborhood.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked through Expedia after reading some of the reviews. First off, this is NOT a good neighborhood for families!! Everything around the hotel is VERY RUNDOWN. The first room they gave us, NONE of the lights worked and the door would not shut all the way unless you pushed all your body weight against it! The beds were ok, the room size ok, but the TV DID NOT WORK! Well it would work for a minute and then the sound would go out!  HOWEVER the people at the front desk are SO NICE! They changed our room when we told them about the lights. They were very apologetic about it. Check in was quick and easy and breakfast was ok. Freeway entrance is good. It is right off the freeway. But all in all I will not go back here because of the neighborhood.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r122582925-Artesia_Inn_Suites-Artesia_California.html</t>
@@ -722,9 +988,6 @@
     <t>December 2011</t>
   </si>
   <si>
-    <t>jdieringer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r122496417-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -743,9 +1006,6 @@
     <t>January 2012</t>
   </si>
   <si>
-    <t>traveller35901</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r116058706-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -773,7 +1033,43 @@
     <t>For the price the hotel was alright although it could use an updating. The only real complaint was the housekeeping. We constantly had to ask for coffee, cups, shampoo and soap.More</t>
   </si>
   <si>
-    <t>rrz518</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r109717722-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>109717722</t>
+  </si>
+  <si>
+    <t>05/24/2011</t>
+  </si>
+  <si>
+    <t>OK for the price</t>
+  </si>
+  <si>
+    <t>Wi-fi service weak signal when available at all. Rooms on north side of the building (facing freeway) are noisy.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>Wi-fi service weak signal when available at all. Rooms on north side of the building (facing freeway) are noisy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r108024949-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>108024949</t>
+  </si>
+  <si>
+    <t>05/12/2011</t>
+  </si>
+  <si>
+    <t>Slept like a baby!!!!</t>
+  </si>
+  <si>
+    <t>OMG- for the price of the room, it was awesome. Room was clean, area quite, bed was sooooooo comfy. We are for sure staying here EVERY time we come to Cali =) oh and breakfast was yummy too!! waffles, sausage muffins, cereal, boiled eggs, yogurt.. typical hotel breakfast but if it's not enough there is a denney's in the parking lotMoreShow less</t>
+  </si>
+  <si>
+    <t>OMG- for the price of the room, it was awesome. Room was clean, area quite, bed was sooooooo comfy. We are for sure staying here EVERY time we come to Cali =) oh and breakfast was yummy too!! waffles, sausage muffins, cereal, boiled eggs, yogurt.. typical hotel breakfast but if it's not enough there is a denney's in the parking lotMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r101556814-Artesia_Inn_Suites-Artesia_California.html</t>
@@ -797,9 +1093,6 @@
     <t>They handled our group of unruly teenagers with care and professionalism.  (I would not have been so kind,  given the way our mob often behaves,  but I digress). I suppose our requests were pretty simple,  but we put this hotel to the test and they did great.  Nothing was too much trouble,  and the manager, Mr. Todd,  worked through our complicated billing with good humor and charm.The pool is fine,  but having that Dennys so closeby really helped out on our expenses.  Not to mention Moons Over My Hammy!!!The room was very clean, spacious,  and the hotels comp breakfast was more than adequate.  The hotel is a great value,  and very close to the So California attractions.More</t>
   </si>
   <si>
-    <t>uksignman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r92191217-Artesia_Inn_Suites-Artesia_California.html</t>
   </si>
   <si>
@@ -813,9 +1106,6 @@
   </si>
   <si>
     <t>Building work taking place on updating the hotel, some of the desk staff were helpful.  If you have a room facing the highway it will be very noisy.  Hotel does not change travellers cheques nor does it have change for washing machines.  You need to have had your breakfast by 9.00am as the staff clear away regardless that you have finished or not.</t>
-  </si>
-  <si>
-    <t>hawaiian717</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r85514431-Artesia_Inn_Suites-Artesia_California.html</t>
@@ -841,7 +1131,58 @@
 Our room was located in the back building, which has interior corridors, on the second floor.  The main building (with exterior corridors) runs parallel to the freeway, and the back building is perpendicular, and our room was closer to the freeway.  Despite this, the freeway noise wasn't bad at all, even with the fan turned off (the fan was much louder than the freeway). When we did first enter the room, I noticed that the window was almost, but not quite closed; the freeway noise was noticeably reduced by closing it all the way.  Rather, it was our next door neighbors who woke us up around 2:30am when they started having some rather noisy fun.  The walls didn't do much to block noise (we could also hear doors in the hallway closing, they tended to slam shut rather loudly on their own), and this isn't totally unexpected in this price range.  We didn't have any issues with noise...We chose this hotel due to price and proximity to a wedding reception we were attending in Cerritos. We arrived after 9pm to check in and there were no other guests ahead of us waiting in the lobby. Check-in was efficient, but the clerk did have to check via her radio to verify that our room was ready before finishing our check-in. We had to ask the location of our room and the time breakfast was served; she didn't volunteer that information.Our room was located in the back building, which has interior corridors, on the second floor.  The main building (with exterior corridors) runs parallel to the freeway, and the back building is perpendicular, and our room was closer to the freeway.  Despite this, the freeway noise wasn't bad at all, even with the fan turned off (the fan was much louder than the freeway). When we did first enter the room, I noticed that the window was almost, but not quite closed; the freeway noise was noticeably reduced by closing it all the way.  Rather, it was our next door neighbors who woke us up around 2:30am when they started having some rather noisy fun.  The walls didn't do much to block noise (we could also hear doors in the hallway closing, they tended to slam shut rather loudly on their own), and this isn't totally unexpected in this price range.  We didn't have any issues with noise from outside the room on our second night.We didn't have the opportunity to sample the breakfast; even on weekends it ended at 9am and we chose to sleep in instead and went out to a restaurant. There is a Denny's in front of the motel for those who desire something close, though we didn't investigate and instead went elsewhere.The room itself was clean, and I didn't notice any significant issues. It felt like it was reasonably up to date. Shower pressure was adequate. The power supply to the room seemed questionable, with a few lights and the TV on, I noticed the lights flickering a couple of times.Check-out was efficient; as when we checked in there wasn't anyone else we had to wait for, and the clerk collected our keys, printed our receipt, and we were on our way.More</t>
   </si>
   <si>
-    <t>HenryRaposa</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r24420332-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>24420332</t>
+  </si>
+  <si>
+    <t>02/09/2009</t>
+  </si>
+  <si>
+    <t>Nice room, but bring earplugs!</t>
+  </si>
+  <si>
+    <t>Stayed a single night while en route from AZ to NorCal. Check-in was swift, albeit formal and not overly informative. Requested a quiet room, away from the freeway, and was placed on the second floor (there are 3 floors). 
+Lots of parking. Elevator(s) available. Room was easy to spot from the parking lot.
+Nice decor, 3-4 pillows on each bed, nice bedding. Really nice for a Quality Inn! Everything was clean and worked well. No fridge, but coffee maker and TV with long channel line-up. 
+Shower head was a 5' so a little low when you're a tall guy. Good water pressure.
+Unfortunately, a group of rowdy guests congregated in the parking lot below my room around 9 pm and had loud conversations. I eventually had to call the front desk twice to ask them to move this party indoors and the clerk wasn't overly forthcoming. Offered me to switch rooms (how practical is that when it's others that make noise and it's almost bedtime?) I wasn't impressed with their way of handling that incident, but the group eventually quieted down. 
+There was another floor on top and of course that room was occupied by someone with kids - who liked to run back and forth. Not much to do about that but wear ear plugs which I fortunately had brought. If you don't have such, ask for a 3rd floor room.
+Breakfast was the standard Choice fare, less the...Stayed a single night while en route from AZ to NorCal. Check-in was swift, albeit formal and not overly informative. Requested a quiet room, away from the freeway, and was placed on the second floor (there are 3 floors). Lots of parking. Elevator(s) available. Room was easy to spot from the parking lot.Nice decor, 3-4 pillows on each bed, nice bedding. Really nice for a Quality Inn! Everything was clean and worked well. No fridge, but coffee maker and TV with long channel line-up. Shower head was a 5' so a little low when you're a tall guy. Good water pressure.Unfortunately, a group of rowdy guests congregated in the parking lot below my room around 9 pm and had loud conversations. I eventually had to call the front desk twice to ask them to move this party indoors and the clerk wasn't overly forthcoming. Offered me to switch rooms (how practical is that when it's others that make noise and it's almost bedtime?) I wasn't impressed with their way of handling that incident, but the group eventually quieted down. There was another floor on top and of course that room was occupied by someone with kids - who liked to run back and forth. Not much to do about that but wear ear plugs which I fortunately had brought. If you don't have such, ask for a 3rd floor room.Breakfast was the standard Choice fare, less the waffle maker. Juices were bad, but the food was fine.All in all the stay was satisfactory considering the rate of $62 per night with AAA. Only wished for a nicer, more dedicated staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>Stayed a single night while en route from AZ to NorCal. Check-in was swift, albeit formal and not overly informative. Requested a quiet room, away from the freeway, and was placed on the second floor (there are 3 floors). 
+Lots of parking. Elevator(s) available. Room was easy to spot from the parking lot.
+Nice decor, 3-4 pillows on each bed, nice bedding. Really nice for a Quality Inn! Everything was clean and worked well. No fridge, but coffee maker and TV with long channel line-up. 
+Shower head was a 5' so a little low when you're a tall guy. Good water pressure.
+Unfortunately, a group of rowdy guests congregated in the parking lot below my room around 9 pm and had loud conversations. I eventually had to call the front desk twice to ask them to move this party indoors and the clerk wasn't overly forthcoming. Offered me to switch rooms (how practical is that when it's others that make noise and it's almost bedtime?) I wasn't impressed with their way of handling that incident, but the group eventually quieted down. 
+There was another floor on top and of course that room was occupied by someone with kids - who liked to run back and forth. Not much to do about that but wear ear plugs which I fortunately had brought. If you don't have such, ask for a 3rd floor room.
+Breakfast was the standard Choice fare, less the...Stayed a single night while en route from AZ to NorCal. Check-in was swift, albeit formal and not overly informative. Requested a quiet room, away from the freeway, and was placed on the second floor (there are 3 floors). Lots of parking. Elevator(s) available. Room was easy to spot from the parking lot.Nice decor, 3-4 pillows on each bed, nice bedding. Really nice for a Quality Inn! Everything was clean and worked well. No fridge, but coffee maker and TV with long channel line-up. Shower head was a 5' so a little low when you're a tall guy. Good water pressure.Unfortunately, a group of rowdy guests congregated in the parking lot below my room around 9 pm and had loud conversations. I eventually had to call the front desk twice to ask them to move this party indoors and the clerk wasn't overly forthcoming. Offered me to switch rooms (how practical is that when it's others that make noise and it's almost bedtime?) I wasn't impressed with their way of handling that incident, but the group eventually quieted down. There was another floor on top and of course that room was occupied by someone with kids - who liked to run back and forth. Not much to do about that but wear ear plugs which I fortunately had brought. If you don't have such, ask for a 3rd floor room.Breakfast was the standard Choice fare, less the waffle maker. Juices were bad, but the food was fine.All in all the stay was satisfactory considering the rate of $62 per night with AAA. Only wished for a nicer, more dedicated staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r10848320-Artesia_Inn_Suites-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>10848320</t>
+  </si>
+  <si>
+    <t>11/15/2007</t>
+  </si>
+  <si>
+    <t>"I'm comming back"</t>
+  </si>
+  <si>
+    <t>I want to first say that the front desk clerk went the extra  mile for me &amp; my family.  I was on a business trip with my family in California and stopped at this hotel as it was near my clients business.  I left my credit card at a food establishment prior to checking into this hotel and the clerk took the initiative and called 411 to get the food establishments number and she even called a taxi to take me back to get my credit card.  In the mean time she allowed my wife and kids to stay in a room while I got my card.  Great service and trust!!  I am diffinately coming back!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>I want to first say that the front desk clerk went the extra  mile for me &amp; my family.  I was on a business trip with my family in California and stopped at this hotel as it was near my clients business.  I left my credit card at a food establishment prior to checking into this hotel and the clerk took the initiative and called 411 to get the food establishments number and she even called a taxi to take me back to get my credit card.  In the mean time she allowed my wife and kids to stay in a room while I got my card.  Great service and trust!!  I am diffinately coming back!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r10679645-Artesia_Inn_Suites-Artesia_California.html</t>
@@ -857,15 +1198,6 @@
   </si>
   <si>
     <t>Had my concerns staying at this hotel!!  However, I was VERY suprised to be acknowledged upon cheking into the hotel.  When I checked into what appeared to be a NEWLY renovated room the front desk called to me to asked if everything was okay with my accommodations.  WOW!!!  Then upon waking up and going to the breakfast room which also appeared to be NEWLY renovated, the continental breakfast was more then what I expected. Once again, I was plesantly suprised with this hotel.</t>
-  </si>
-  <si>
-    <t>November 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>jlls</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d75845-r5363449-Artesia_Inn_Suites-Artesia_California.html</t>
@@ -1388,186 +1720,166 @@
       <c r="A2" t="n">
         <v>1992</v>
       </c>
-      <c r="B2" t="n">
-        <v>151275</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1992</v>
       </c>
-      <c r="B3" t="n">
-        <v>151276</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1992</v>
       </c>
-      <c r="B4" t="n">
-        <v>151277</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
         <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>1</v>
@@ -1578,63 +1890,59 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1992</v>
       </c>
-      <c r="B5" t="n">
-        <v>151278</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="n">
+        <v>75</v>
+      </c>
+      <c r="P5" t="n">
         <v>2</v>
       </c>
-      <c r="R5" t="n">
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
         <v>3</v>
       </c>
-      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>1</v>
@@ -1645,176 +1953,172 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1992</v>
       </c>
-      <c r="B6" t="n">
-        <v>151279</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1992</v>
       </c>
-      <c r="B7" t="n">
-        <v>151280</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1992</v>
       </c>
-      <c r="B8" t="n">
-        <v>151281</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1828,519 +2132,475 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1992</v>
       </c>
-      <c r="B9" t="n">
-        <v>4199</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1992</v>
       </c>
-      <c r="B10" t="n">
-        <v>151282</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>2</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>1992</v>
       </c>
-      <c r="B11" t="n">
-        <v>151283</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>1992</v>
       </c>
-      <c r="B12" t="n">
-        <v>151284</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>1992</v>
       </c>
-      <c r="B13" t="n">
-        <v>151285</v>
-      </c>
-      <c r="C13" t="s">
-        <v>133</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>127</v>
+      </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1992</v>
       </c>
-      <c r="B14" t="n">
-        <v>151286</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1992</v>
       </c>
-      <c r="B15" t="n">
-        <v>151287</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>1992</v>
       </c>
-      <c r="B16" t="n">
-        <v>151288</v>
-      </c>
-      <c r="C16" t="s">
-        <v>155</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2348,202 +2608,182 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1992</v>
       </c>
-      <c r="B17" t="n">
-        <v>151289</v>
-      </c>
-      <c r="C17" t="s">
-        <v>162</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="O17" t="s">
-        <v>169</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>1992</v>
       </c>
-      <c r="B18" t="n">
-        <v>151290</v>
-      </c>
-      <c r="C18" t="s">
-        <v>170</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1992</v>
       </c>
-      <c r="B19" t="n">
-        <v>151291</v>
-      </c>
-      <c r="C19" t="s">
-        <v>178</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
         <v>4</v>
       </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2551,341 +2791,282 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1992</v>
       </c>
-      <c r="B20" t="n">
-        <v>44793</v>
-      </c>
-      <c r="C20" t="s">
-        <v>185</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>188</v>
-      </c>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1992</v>
       </c>
-      <c r="B21" t="n">
-        <v>4042</v>
-      </c>
-      <c r="C21" t="s">
-        <v>190</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
-      <c r="N21" t="s">
-        <v>196</v>
-      </c>
-      <c r="O21" t="s">
-        <v>54</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2</v>
-      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1992</v>
       </c>
-      <c r="B22" t="n">
-        <v>3346</v>
-      </c>
-      <c r="C22" t="s">
-        <v>198</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>1992</v>
       </c>
-      <c r="B23" t="n">
-        <v>151292</v>
-      </c>
-      <c r="C23" t="s">
-        <v>205</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s"/>
       <c r="O23" t="s"/>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>1992</v>
       </c>
-      <c r="B24" t="n">
-        <v>151293</v>
-      </c>
-      <c r="C24" t="s">
-        <v>211</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="J24" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="O24" t="s">
-        <v>169</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
         <v>3</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2893,66 +3074,62 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>1992</v>
       </c>
-      <c r="B25" t="n">
-        <v>151294</v>
-      </c>
-      <c r="C25" t="s">
-        <v>219</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
         <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
@@ -2964,54 +3141,50 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>1992</v>
       </c>
-      <c r="B26" t="n">
-        <v>151295</v>
-      </c>
-      <c r="C26" t="s">
-        <v>227</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="J26" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="K26" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3027,7 +3200,7 @@
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3035,195 +3208,197 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>1992</v>
       </c>
-      <c r="B27" t="n">
-        <v>90602</v>
-      </c>
-      <c r="C27" t="s">
-        <v>234</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="J27" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>212</v>
+      </c>
+      <c r="O27" t="s">
+        <v>213</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
         <v>3</v>
       </c>
-      <c r="N27" t="s">
-        <v>240</v>
-      </c>
-      <c r="O27" t="s">
-        <v>63</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>214</v>
+      </c>
+      <c r="X27" t="s">
+        <v>215</v>
+      </c>
       <c r="Y27" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1992</v>
       </c>
-      <c r="B28" t="n">
-        <v>151296</v>
-      </c>
-      <c r="C28" t="s">
-        <v>241</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="J28" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="K28" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>222</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="n">
         <v>3</v>
       </c>
-      <c r="N28" t="s">
-        <v>247</v>
-      </c>
-      <c r="O28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>248</v>
-      </c>
-      <c r="X28" t="s">
-        <v>249</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>1992</v>
       </c>
-      <c r="B29" t="n">
-        <v>151297</v>
-      </c>
-      <c r="C29" t="s">
-        <v>251</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
         <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3235,148 +3410,126 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>248</v>
-      </c>
-      <c r="X29" t="s">
-        <v>249</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1992</v>
       </c>
-      <c r="B30" t="n">
-        <v>151298</v>
-      </c>
-      <c r="C30" t="s">
-        <v>259</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="J30" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="K30" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>3</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>1992</v>
       </c>
-      <c r="B31" t="n">
-        <v>151299</v>
-      </c>
-      <c r="C31" t="s">
-        <v>265</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>233</v>
+      </c>
+      <c r="O31" t="s">
+        <v>75</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
         <v>4</v>
       </c>
-      <c r="N31" t="s">
-        <v>271</v>
-      </c>
-      <c r="O31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3384,70 +3537,66 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>1992</v>
       </c>
-      <c r="B32" t="n">
-        <v>151300</v>
-      </c>
-      <c r="C32" t="s">
-        <v>273</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="J32" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="K32" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="O32" t="s">
-        <v>280</v>
+        <v>61</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3455,45 +3604,41 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>1992</v>
       </c>
-      <c r="B33" t="n">
-        <v>151301</v>
-      </c>
-      <c r="C33" t="s">
-        <v>281</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="J33" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="K33" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
@@ -3501,18 +3646,20 @@
       <c r="N33" t="s"/>
       <c r="O33" t="s"/>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
         <v>2</v>
       </c>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3520,7 +3667,1461 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>255</v>
+      </c>
+      <c r="J34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>257</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>258</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>259</v>
+      </c>
+      <c r="J35" t="s">
+        <v>260</v>
+      </c>
+      <c r="K35" t="s">
+        <v>261</v>
+      </c>
+      <c r="L35" t="s">
+        <v>262</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>263</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>266</v>
+      </c>
+      <c r="J36" t="s">
+        <v>267</v>
+      </c>
+      <c r="K36" t="s">
+        <v>268</v>
+      </c>
+      <c r="L36" t="s">
+        <v>269</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>270</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>272</v>
+      </c>
+      <c r="J37" t="s">
+        <v>273</v>
+      </c>
+      <c r="K37" t="s">
+        <v>274</v>
+      </c>
+      <c r="L37" t="s">
+        <v>275</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>276</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>278</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>279</v>
+      </c>
+      <c r="J38" t="s">
+        <v>280</v>
+      </c>
+      <c r="K38" t="s">
+        <v>281</v>
+      </c>
+      <c r="L38" t="s">
+        <v>282</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>283</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>284</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>285</v>
+      </c>
+      <c r="J39" t="s">
+        <v>286</v>
+      </c>
+      <c r="K39" t="s">
         <v>287</v>
+      </c>
+      <c r="L39" t="s">
+        <v>288</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>289</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>290</v>
+      </c>
+      <c r="J40" t="s">
+        <v>291</v>
+      </c>
+      <c r="K40" t="s">
+        <v>292</v>
+      </c>
+      <c r="L40" t="s">
+        <v>293</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>283</v>
+      </c>
+      <c r="O40" t="s">
+        <v>127</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>296</v>
+      </c>
+      <c r="J41" t="s">
+        <v>297</v>
+      </c>
+      <c r="K41" t="s">
+        <v>298</v>
+      </c>
+      <c r="L41" t="s">
+        <v>299</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>300</v>
+      </c>
+      <c r="O41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>302</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>303</v>
+      </c>
+      <c r="J42" t="s">
+        <v>304</v>
+      </c>
+      <c r="K42" t="s">
+        <v>305</v>
+      </c>
+      <c r="L42" t="s">
+        <v>306</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>300</v>
+      </c>
+      <c r="O42" t="s">
+        <v>127</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>309</v>
+      </c>
+      <c r="J43" t="s">
+        <v>310</v>
+      </c>
+      <c r="K43" t="s">
+        <v>311</v>
+      </c>
+      <c r="L43" t="s">
+        <v>312</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>300</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>314</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>315</v>
+      </c>
+      <c r="J44" t="s">
+        <v>316</v>
+      </c>
+      <c r="K44" t="s">
+        <v>317</v>
+      </c>
+      <c r="L44" t="s">
+        <v>318</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>319</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>320</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>321</v>
+      </c>
+      <c r="J45" t="s">
+        <v>322</v>
+      </c>
+      <c r="K45" t="s">
+        <v>323</v>
+      </c>
+      <c r="L45" t="s">
+        <v>324</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>325</v>
+      </c>
+      <c r="O45" t="s">
+        <v>75</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>326</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>327</v>
+      </c>
+      <c r="J46" t="s">
+        <v>328</v>
+      </c>
+      <c r="K46" t="s">
+        <v>329</v>
+      </c>
+      <c r="L46" t="s">
+        <v>330</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>331</v>
+      </c>
+      <c r="O46" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>332</v>
+      </c>
+      <c r="X46" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>335</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>336</v>
+      </c>
+      <c r="J47" t="s">
+        <v>337</v>
+      </c>
+      <c r="K47" t="s">
+        <v>338</v>
+      </c>
+      <c r="L47" t="s">
+        <v>339</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>340</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>332</v>
+      </c>
+      <c r="X47" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>342</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>343</v>
+      </c>
+      <c r="J48" t="s">
+        <v>344</v>
+      </c>
+      <c r="K48" t="s">
+        <v>345</v>
+      </c>
+      <c r="L48" t="s">
+        <v>346</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>340</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>332</v>
+      </c>
+      <c r="X48" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>348</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>349</v>
+      </c>
+      <c r="J49" t="s">
+        <v>350</v>
+      </c>
+      <c r="K49" t="s">
+        <v>351</v>
+      </c>
+      <c r="L49" t="s">
+        <v>352</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>353</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>332</v>
+      </c>
+      <c r="X49" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>355</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>356</v>
+      </c>
+      <c r="J50" t="s">
+        <v>357</v>
+      </c>
+      <c r="K50" t="s">
+        <v>358</v>
+      </c>
+      <c r="L50" t="s">
+        <v>359</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>353</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>360</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>361</v>
+      </c>
+      <c r="J51" t="s">
+        <v>362</v>
+      </c>
+      <c r="K51" t="s">
+        <v>363</v>
+      </c>
+      <c r="L51" t="s">
+        <v>364</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>365</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>367</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>368</v>
+      </c>
+      <c r="J52" t="s">
+        <v>369</v>
+      </c>
+      <c r="K52" t="s">
+        <v>370</v>
+      </c>
+      <c r="L52" t="s">
+        <v>371</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>372</v>
+      </c>
+      <c r="O52" t="s">
+        <v>213</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>374</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>375</v>
+      </c>
+      <c r="J53" t="s">
+        <v>376</v>
+      </c>
+      <c r="K53" t="s">
+        <v>377</v>
+      </c>
+      <c r="L53" t="s">
+        <v>378</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>379</v>
+      </c>
+      <c r="O53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>381</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>382</v>
+      </c>
+      <c r="J54" t="s">
+        <v>383</v>
+      </c>
+      <c r="K54" t="s">
+        <v>384</v>
+      </c>
+      <c r="L54" t="s">
+        <v>385</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>379</v>
+      </c>
+      <c r="O54" t="s">
+        <v>213</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>386</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>387</v>
+      </c>
+      <c r="J55" t="s">
+        <v>388</v>
+      </c>
+      <c r="K55" t="s">
+        <v>389</v>
+      </c>
+      <c r="L55" t="s">
+        <v>390</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
